--- a/Costodecarta(2).xlsx
+++ b/Costodecarta(2).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="559">
   <si>
     <t>CARTA</t>
   </si>
@@ -1033,619 +1033,622 @@
     <t>Agrupados en</t>
   </si>
   <si>
-    <t>LEGÍTIMO</t>
+    <t>PUREZA</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>21/1/2024</t>
+  </si>
+  <si>
+    <t>OLIVARES DE NEUQUÉN</t>
+  </si>
+  <si>
+    <t>CASTELL</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>ACETO BALSAMICO</t>
+  </si>
+  <si>
+    <t>COCINERO</t>
+  </si>
+  <si>
+    <t>ACHURAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AJI MOLIDO</t>
+  </si>
+  <si>
+    <t>LA PARMESANA</t>
+  </si>
+  <si>
+    <t>AJO</t>
+  </si>
+  <si>
+    <t>PROMEDIO</t>
+  </si>
+  <si>
+    <t>ALBAHACA</t>
+  </si>
+  <si>
+    <t>ANANA EN ALMIBAR</t>
+  </si>
+  <si>
+    <t>DELICIAS MARINAS</t>
+  </si>
+  <si>
+    <t>APIO</t>
+  </si>
+  <si>
+    <t>LA PROVIDENCIA</t>
+  </si>
+  <si>
+    <t>AZUCAR IMPALPABLE</t>
+  </si>
+  <si>
+    <t>BANANA</t>
+  </si>
+  <si>
+    <t>BERBERECHOS</t>
+  </si>
+  <si>
+    <t>BERENJENA</t>
+  </si>
+  <si>
+    <t>BERRO</t>
+  </si>
+  <si>
+    <t>BIFE DE CHORIZO</t>
+  </si>
+  <si>
+    <t>BONDIOLA</t>
+  </si>
+  <si>
+    <t>NO ENCONTRADOS</t>
+  </si>
+  <si>
+    <t>BROTES DE ALFALFA</t>
+  </si>
+  <si>
+    <t>dos bochas</t>
+  </si>
+  <si>
+    <t>BROTES DE SOJA</t>
+  </si>
+  <si>
+    <t>CACAO AMARGO</t>
+  </si>
+  <si>
+    <t>ZAFRAN</t>
+  </si>
+  <si>
+    <t>CALAMAR</t>
+  </si>
+  <si>
+    <t>SOLIMENO</t>
+  </si>
+  <si>
+    <t>CAMARONES</t>
+  </si>
+  <si>
+    <t>CANELA EN POLVO</t>
+  </si>
+  <si>
+    <t>CARACU/ALA DE PECHO</t>
+  </si>
+  <si>
+    <t>conf. de berenjenas</t>
+  </si>
+  <si>
+    <t>CEBOLLA DE VERDEO</t>
+  </si>
+  <si>
+    <t>CHOCOLATE HELADO</t>
+  </si>
+  <si>
+    <t>CHOCOLATE</t>
+  </si>
+  <si>
+    <t>SHOT</t>
+  </si>
+  <si>
+    <t>CHOLGAS PELADAS</t>
+  </si>
+  <si>
+    <t>CHORIZOS</t>
+  </si>
+  <si>
+    <t>CIBOULET</t>
+  </si>
+  <si>
+    <t>SIN MARCA</t>
+  </si>
+  <si>
+    <t>CIRUELAS</t>
+  </si>
+  <si>
+    <t>COCO RALLADO</t>
+  </si>
+  <si>
+    <t>papa cubos</t>
+  </si>
+  <si>
+    <t>COLITA DE CUADRIL</t>
+  </si>
+  <si>
+    <t>yemas</t>
+  </si>
+  <si>
+    <t>claras</t>
+  </si>
+  <si>
+    <t>COSTILLA</t>
+  </si>
+  <si>
+    <t>LA SERENÍSIMA</t>
+  </si>
+  <si>
+    <t>CREMA AMERICANA</t>
+  </si>
+  <si>
+    <t>DANETTE</t>
+  </si>
+  <si>
+    <t>CREMA DE LECHE</t>
+  </si>
+  <si>
+    <t>TREGAR</t>
+  </si>
+  <si>
+    <t>CROCANTE DE ALMENDRAS</t>
+  </si>
+  <si>
+    <t>CURRY</t>
+  </si>
+  <si>
+    <t>DULCE DE BATATA</t>
+  </si>
+  <si>
+    <t>DULCE DE LECHE</t>
+  </si>
+  <si>
+    <t>DULCE DE MEMBRILLO</t>
+  </si>
+  <si>
+    <t>DURAZNO</t>
+  </si>
+  <si>
+    <t>DURAZNOS EN ALMIBAR</t>
+  </si>
+  <si>
+    <t>ESENCIA DE VAINILLA</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>ESPINACA</t>
+  </si>
+  <si>
+    <t>ALGABO</t>
+  </si>
+  <si>
+    <t>FIDEOS DE ARROZ</t>
+  </si>
+  <si>
+    <t>BLUE PATNA</t>
+  </si>
+  <si>
+    <t>FILET DE MERLUZA</t>
+  </si>
+  <si>
+    <t>FRUTILLA</t>
+  </si>
+  <si>
+    <t>FRUTOS ROJOS</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>GELATINA</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>GLUCOSA</t>
+  </si>
+  <si>
+    <t>gruyere</t>
+  </si>
+  <si>
+    <t>CAÑUELAS</t>
+  </si>
+  <si>
+    <t>S/D</t>
+  </si>
+  <si>
+    <t>kgm</t>
+  </si>
+  <si>
+    <t>HONGOS SECOS</t>
+  </si>
+  <si>
+    <t>KIWI</t>
+  </si>
+  <si>
+    <t>LANGOSTA CON CASCARA</t>
+  </si>
+  <si>
+    <t>PROTEIN</t>
   </si>
   <si>
     <t>lt</t>
   </si>
   <si>
-    <t>28/12/2023</t>
-  </si>
-  <si>
-    <t>OLIVARES DE NEUQUÉN</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>CASTELL</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>ACETO BALSAMICO</t>
-  </si>
-  <si>
-    <t>COCINERO</t>
-  </si>
-  <si>
-    <t>ACHURAS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>AJI MOLIDO</t>
-  </si>
-  <si>
-    <t>LA PARMESANA</t>
-  </si>
-  <si>
-    <t>AJO</t>
-  </si>
-  <si>
-    <t>PROMEDIO</t>
-  </si>
-  <si>
-    <t>ALBAHACA</t>
-  </si>
-  <si>
-    <t>ANANA EN ALMIBAR</t>
-  </si>
-  <si>
-    <t>DELICIAS MARINAS</t>
-  </si>
-  <si>
-    <t>APIO</t>
-  </si>
-  <si>
-    <t>LA CAMPAGNOLA</t>
-  </si>
-  <si>
-    <t>LA PROVIDENCIA</t>
-  </si>
-  <si>
-    <t>AZUCAR IMPALPABLE</t>
-  </si>
-  <si>
-    <t>BANANA</t>
-  </si>
-  <si>
-    <t>BERBERECHOS</t>
-  </si>
-  <si>
-    <t>BERENJENA</t>
-  </si>
-  <si>
-    <t>BERRO</t>
-  </si>
-  <si>
-    <t>BIFE DE CHORIZO</t>
-  </si>
-  <si>
-    <t>BONDIOLA</t>
-  </si>
-  <si>
-    <t>NO ENCONTRADOS</t>
-  </si>
-  <si>
-    <t>BROTES DE ALFALFA</t>
-  </si>
-  <si>
-    <t>dos bochas</t>
-  </si>
-  <si>
-    <t>BROTES DE SOJA</t>
-  </si>
-  <si>
-    <t>CACAO AMARGO</t>
-  </si>
-  <si>
-    <t>ZAFRAN</t>
-  </si>
-  <si>
-    <t>CALAMAR</t>
-  </si>
-  <si>
-    <t>CAMARONES</t>
-  </si>
-  <si>
-    <t>DR. ZOO</t>
-  </si>
-  <si>
-    <t>CANELA EN POLVO</t>
-  </si>
-  <si>
-    <t>CARACU/ALA DE PECHO</t>
-  </si>
-  <si>
-    <t>conf. de berenjenas</t>
-  </si>
-  <si>
-    <t>CEBOLLA DE VERDEO</t>
-  </si>
-  <si>
-    <t>CHOCOLATE HELADO</t>
-  </si>
-  <si>
-    <t>CHOCOLATE</t>
-  </si>
-  <si>
-    <t>MILKA</t>
-  </si>
-  <si>
-    <t>CHOLGAS PELADAS</t>
-  </si>
-  <si>
-    <t>CHORIZOS</t>
-  </si>
-  <si>
-    <t>CIBOULET</t>
-  </si>
-  <si>
-    <t>SIN MARCA</t>
-  </si>
-  <si>
-    <t>CIRUELAS</t>
-  </si>
-  <si>
-    <t>COCO RALLADO</t>
+    <t>LECHUGA CRIOLLA</t>
+  </si>
+  <si>
+    <t>LECHUGA ESCAROLA</t>
+  </si>
+  <si>
+    <t>LECHUGA MORADA</t>
+  </si>
+  <si>
+    <t>LECHUGA REPOLLADA</t>
+  </si>
+  <si>
+    <t>LENGUA</t>
+  </si>
+  <si>
+    <t>CALSA</t>
+  </si>
+  <si>
+    <t>LIMON HELADO</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>LOMO C/CORDON</t>
+  </si>
+  <si>
+    <t>MAIZENA</t>
+  </si>
+  <si>
+    <t>MANGO</t>
+  </si>
+  <si>
+    <t>MANI CON CASCARA</t>
+  </si>
+  <si>
+    <t>MANZANA VERDE</t>
+  </si>
+  <si>
+    <t>CLIGHT</t>
+  </si>
+  <si>
+    <t>MARUCHA</t>
+  </si>
+  <si>
+    <t>MATAMBRE</t>
+  </si>
+  <si>
+    <t>MATAMBRE DE CERDO</t>
+  </si>
+  <si>
+    <t>NUESTRA CARNICERIA</t>
+  </si>
+  <si>
+    <t>HELLMANNS</t>
+  </si>
+  <si>
+    <t>MEJILLON 1/2 VALVA</t>
+  </si>
+  <si>
+    <t>MEJILLON PELADO</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>MENTA FRESCA</t>
+  </si>
+  <si>
+    <t>COLGATE</t>
+  </si>
+  <si>
+    <t>MERENGUE</t>
+  </si>
+  <si>
+    <t>MIEL</t>
+  </si>
+  <si>
+    <t>MONTECITOS</t>
+  </si>
+  <si>
+    <t>MOSTAZA</t>
+  </si>
+  <si>
+    <t>SAVORA</t>
+  </si>
+  <si>
+    <t>NALGA PARA MILANESAS</t>
+  </si>
+  <si>
+    <t>NERVIOS</t>
+  </si>
+  <si>
+    <t>NUECES</t>
+  </si>
+  <si>
+    <t>ÑOQUIS DE VERDURA</t>
+  </si>
+  <si>
+    <t>PAN SABORIZADO</t>
+  </si>
+  <si>
+    <t>PECETO</t>
+  </si>
+  <si>
+    <t>PECHITO DE CERDO C/MANTA</t>
+  </si>
+  <si>
+    <t>PERAS SECA</t>
+  </si>
+  <si>
+    <t>PEREJIL</t>
+  </si>
+  <si>
+    <t>pescado(lenguado)</t>
+  </si>
+  <si>
+    <t>PIMENTON DULCE</t>
   </si>
   <si>
     <t>ALICANTE</t>
   </si>
   <si>
-    <t>papa cubos</t>
-  </si>
-  <si>
-    <t>COLITA DE CUADRIL</t>
-  </si>
-  <si>
-    <t>yemas</t>
-  </si>
-  <si>
-    <t>claras</t>
-  </si>
-  <si>
-    <t>COSTILLA</t>
-  </si>
-  <si>
-    <t>REXONA</t>
-  </si>
-  <si>
-    <t>CREMA AMERICANA</t>
-  </si>
-  <si>
-    <t>DANETTE</t>
-  </si>
-  <si>
-    <t>CREMA DE LECHE</t>
-  </si>
-  <si>
-    <t>TREGAR</t>
-  </si>
-  <si>
-    <t>CROCANTE DE ALMENDRAS</t>
-  </si>
-  <si>
-    <t>CURRY</t>
-  </si>
-  <si>
-    <t>DULCE DE BATATA</t>
-  </si>
-  <si>
-    <t>DULCE DE LECHE</t>
-  </si>
-  <si>
-    <t>DULCE DE MEMBRILLO</t>
-  </si>
-  <si>
-    <t>DURAZNO</t>
-  </si>
-  <si>
-    <t>DURAZNOS EN ALMIBAR</t>
-  </si>
-  <si>
-    <t>ESENCIA DE VAINILLA</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>ESPINACA</t>
+    <t>POMELO ROSADO</t>
+  </si>
+  <si>
+    <t>TERMA</t>
+  </si>
+  <si>
+    <t>PUERRO</t>
+  </si>
+  <si>
+    <t>QUESO PATEGRAS</t>
+  </si>
+  <si>
+    <t>QUESO ROQUEFORT</t>
+  </si>
+  <si>
+    <t>RAVIOLES DE VERDURA</t>
+  </si>
+  <si>
+    <t>LA BIANCA</t>
+  </si>
+  <si>
+    <t>REPOLLO BLANCO</t>
+  </si>
+  <si>
+    <t>REPOLLO COLORADO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SANDIA</t>
+  </si>
+  <si>
+    <t>SESAMO BLANCO</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>SESAMO NEGRO</t>
+  </si>
+  <si>
+    <t>soja salsa</t>
+  </si>
+  <si>
+    <t>TALLARINES COMUNES</t>
+  </si>
+  <si>
+    <t>TALLARINES INTEGRALES</t>
+  </si>
+  <si>
+    <t>TINTA NEGRA</t>
+  </si>
+  <si>
+    <t>tomate LATA</t>
+  </si>
+  <si>
+    <t>ARCOR</t>
+  </si>
+  <si>
+    <t>TOMATES SECOS</t>
+  </si>
+  <si>
+    <t>MERIDIANO</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>TOMILLO</t>
+  </si>
+  <si>
+    <t>LA ESPAÑOLA</t>
+  </si>
+  <si>
+    <t>UVAS</t>
+  </si>
+  <si>
+    <t>SAN FELIPE</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>DON VALENTÍN LACRADO</t>
+  </si>
+  <si>
+    <t>NOVECENTO</t>
+  </si>
+  <si>
+    <t>ZAPALLITO</t>
+  </si>
+  <si>
+    <t>ZUCHINI</t>
+  </si>
+  <si>
+    <t>CALDOS KNOR</t>
+  </si>
+  <si>
+    <t>KNORR</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>LINCOLN</t>
+  </si>
+  <si>
+    <t>CUARTO CRECIENTE</t>
+  </si>
+  <si>
+    <t>NO APLICA MARCA</t>
+  </si>
+  <si>
+    <t>zapallo en almibar</t>
+  </si>
+  <si>
+    <t>CARREFOUR</t>
+  </si>
+  <si>
+    <t>BIMBO</t>
+  </si>
+  <si>
+    <t>café pocillo</t>
+  </si>
+  <si>
+    <t>café al cognac</t>
+  </si>
+  <si>
+    <t>CUSENIER</t>
+  </si>
+  <si>
+    <t>TOP LINE</t>
+  </si>
+  <si>
+    <t>EL ABUELO</t>
+  </si>
+  <si>
+    <t>lenguado</t>
+  </si>
+  <si>
+    <t>estragon</t>
+  </si>
+  <si>
+    <t>Peras</t>
+  </si>
+  <si>
+    <t>Oporto</t>
+  </si>
+  <si>
+    <t>MAGGI</t>
+  </si>
+  <si>
+    <t>Cerveza Negra</t>
+  </si>
+  <si>
+    <t>ANDES</t>
+  </si>
+  <si>
+    <t>Queso Rallado</t>
+  </si>
+  <si>
+    <t>Papa Gratin</t>
+  </si>
+  <si>
+    <t>FLOR DE JARDÍN</t>
+  </si>
+  <si>
+    <t>TRES PLUMAS</t>
+  </si>
+  <si>
+    <t>Chocolinas</t>
+  </si>
+  <si>
+    <t>CHOCOLINAS</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>DOLCA</t>
+  </si>
+  <si>
+    <t>SPRITE</t>
+  </si>
+  <si>
+    <t>Salmòn Rosado</t>
+  </si>
+  <si>
+    <t>Morron en lata</t>
+  </si>
+  <si>
+    <t>Puré de berro</t>
+  </si>
+  <si>
+    <t>Pimienta</t>
+  </si>
+  <si>
+    <t>Fileto</t>
+  </si>
+  <si>
+    <t>LUCCHETTI</t>
+  </si>
+  <si>
+    <t>palmitos</t>
+  </si>
+  <si>
+    <t>GREAT VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choclo en granos </t>
+  </si>
+  <si>
+    <t>INCA</t>
+  </si>
+  <si>
+    <t>queso barra x kg</t>
+  </si>
+  <si>
+    <t>queso regiano</t>
+  </si>
+  <si>
+    <t>COOPERATIVA</t>
+  </si>
+  <si>
+    <t>vinagreta</t>
+  </si>
+  <si>
+    <t>CASAMCREM</t>
   </si>
   <si>
     <t>DICOMERE</t>
-  </si>
-  <si>
-    <t>FIDEOS DE ARROZ</t>
-  </si>
-  <si>
-    <t>BLUE PATNA</t>
-  </si>
-  <si>
-    <t>FILET DE MERLUZA</t>
-  </si>
-  <si>
-    <t>FRUTILLA</t>
-  </si>
-  <si>
-    <t>SER</t>
-  </si>
-  <si>
-    <t>FRUTOS ROJOS</t>
-  </si>
-  <si>
-    <t>GELATINA</t>
-  </si>
-  <si>
-    <t>ROYAL</t>
-  </si>
-  <si>
-    <t>GLUCOSA</t>
-  </si>
-  <si>
-    <t>gruyere</t>
-  </si>
-  <si>
-    <t>CASERITA</t>
-  </si>
-  <si>
-    <t>S/D</t>
-  </si>
-  <si>
-    <t>kgm</t>
-  </si>
-  <si>
-    <t>HONGOS SECOS</t>
-  </si>
-  <si>
-    <t>KIWI</t>
-  </si>
-  <si>
-    <t>LANGOSTA CON CASCARA</t>
-  </si>
-  <si>
-    <t>PROTEIN</t>
-  </si>
-  <si>
-    <t>LECHUGA CRIOLLA</t>
-  </si>
-  <si>
-    <t>LECHUGA ESCAROLA</t>
-  </si>
-  <si>
-    <t>LECHUGA MORADA</t>
-  </si>
-  <si>
-    <t>LECHUGA REPOLLADA</t>
-  </si>
-  <si>
-    <t>LENGUA</t>
-  </si>
-  <si>
-    <t>CALSA</t>
-  </si>
-  <si>
-    <t>LIMON HELADO</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>CHOCOARROZ</t>
-  </si>
-  <si>
-    <t>LOMO C/CORDON</t>
-  </si>
-  <si>
-    <t>MAIZENA</t>
-  </si>
-  <si>
-    <t>MANGO</t>
-  </si>
-  <si>
-    <t>MANI CON CASCARA</t>
-  </si>
-  <si>
-    <t>MANZANA VERDE</t>
-  </si>
-  <si>
-    <t>CLIGHT</t>
-  </si>
-  <si>
-    <t>MARUCHA</t>
-  </si>
-  <si>
-    <t>MATAMBRE</t>
-  </si>
-  <si>
-    <t>MATAMBRE DE CERDO</t>
-  </si>
-  <si>
-    <t>NUESTRA CARNICERIA</t>
-  </si>
-  <si>
-    <t>HEINZ</t>
-  </si>
-  <si>
-    <t>MEJILLON 1/2 VALVA</t>
-  </si>
-  <si>
-    <t>MEJILLON PELADO</t>
-  </si>
-  <si>
-    <t>MELON</t>
-  </si>
-  <si>
-    <t>MENTA FRESCA</t>
-  </si>
-  <si>
-    <t>COLGATE</t>
-  </si>
-  <si>
-    <t>MERENGUE</t>
-  </si>
-  <si>
-    <t>MIEL</t>
-  </si>
-  <si>
-    <t>ALELUYA</t>
-  </si>
-  <si>
-    <t>MOSTAZA</t>
-  </si>
-  <si>
-    <t>SAVORA</t>
-  </si>
-  <si>
-    <t>NALGA PARA MILANESAS</t>
-  </si>
-  <si>
-    <t>NERVIOS</t>
-  </si>
-  <si>
-    <t>NUECES</t>
-  </si>
-  <si>
-    <t>ÑOQUIS DE VERDURA</t>
-  </si>
-  <si>
-    <t>PAN SABORIZADO</t>
-  </si>
-  <si>
-    <t>PECETO</t>
-  </si>
-  <si>
-    <t>PECHITO DE CERDO C/MANTA</t>
-  </si>
-  <si>
-    <t>PERAS SECA</t>
-  </si>
-  <si>
-    <t>PEREJIL</t>
-  </si>
-  <si>
-    <t>pescado(lenguado)</t>
-  </si>
-  <si>
-    <t>PIMENTON DULCE</t>
-  </si>
-  <si>
-    <t>KNORR</t>
-  </si>
-  <si>
-    <t>POMELO ROSADO</t>
-  </si>
-  <si>
-    <t>TERMA</t>
-  </si>
-  <si>
-    <t>PUERRO</t>
-  </si>
-  <si>
-    <t>QUESO PATEGRAS</t>
-  </si>
-  <si>
-    <t>QUESO ROQUEFORT</t>
-  </si>
-  <si>
-    <t>RAVIOLES DE VERDURA</t>
-  </si>
-  <si>
-    <t>ORALÍ</t>
-  </si>
-  <si>
-    <t>REPOLLO BLANCO</t>
-  </si>
-  <si>
-    <t>REPOLLO COLORADO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SANDIA</t>
-  </si>
-  <si>
-    <t>SESAMO BLANCO</t>
-  </si>
-  <si>
-    <t>15/11/2023</t>
-  </si>
-  <si>
-    <t>SESAMO NEGRO</t>
-  </si>
-  <si>
-    <t>soja salsa</t>
-  </si>
-  <si>
-    <t>TALLARINES COMUNES</t>
-  </si>
-  <si>
-    <t>TALLARINES INTEGRALES</t>
-  </si>
-  <si>
-    <t>TINTA NEGRA</t>
-  </si>
-  <si>
-    <t>tomate LATA</t>
-  </si>
-  <si>
-    <t>ARCOR</t>
-  </si>
-  <si>
-    <t>TOMATES SECOS</t>
-  </si>
-  <si>
-    <t>MERIDIANO</t>
-  </si>
-  <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>TOMILLO</t>
-  </si>
-  <si>
-    <t>LA EGIPCIANA</t>
-  </si>
-  <si>
-    <t>UVAS</t>
-  </si>
-  <si>
-    <t>SAN FELIPE</t>
-  </si>
-  <si>
-    <t>VACIO</t>
-  </si>
-  <si>
-    <t>DON VALENTÍN LACRADO</t>
-  </si>
-  <si>
-    <t>NOVECENTO</t>
-  </si>
-  <si>
-    <t>ZAPALLITO</t>
-  </si>
-  <si>
-    <t>ZUCHINI</t>
-  </si>
-  <si>
-    <t>CALDOS KNOR</t>
-  </si>
-  <si>
-    <t>Tomates</t>
-  </si>
-  <si>
-    <t>LINCOLN</t>
-  </si>
-  <si>
-    <t>CUARTO CRECIENTE</t>
-  </si>
-  <si>
-    <t>NO APLICA MARCA</t>
-  </si>
-  <si>
-    <t>zapallo en almibar</t>
-  </si>
-  <si>
-    <t>CARREFOUR</t>
-  </si>
-  <si>
-    <t>BIMBO</t>
-  </si>
-  <si>
-    <t>café pocillo</t>
-  </si>
-  <si>
-    <t>café al cognac</t>
-  </si>
-  <si>
-    <t>CUSENIER</t>
-  </si>
-  <si>
-    <t>EL ABUELO</t>
-  </si>
-  <si>
-    <t>lenguado</t>
-  </si>
-  <si>
-    <t>estragon</t>
-  </si>
-  <si>
-    <t>Peras</t>
-  </si>
-  <si>
-    <t>Oporto</t>
-  </si>
-  <si>
-    <t>MAGGI</t>
-  </si>
-  <si>
-    <t>Cerveza Negra</t>
-  </si>
-  <si>
-    <t>ANDES</t>
-  </si>
-  <si>
-    <t>Queso Rallado</t>
-  </si>
-  <si>
-    <t>Papa Gratin</t>
-  </si>
-  <si>
-    <t>FLOR DE JARDÍN</t>
-  </si>
-  <si>
-    <t>Chocolinas</t>
-  </si>
-  <si>
-    <t>CHOCOLINAS</t>
-  </si>
-  <si>
-    <t>Café</t>
-  </si>
-  <si>
-    <t>CABRALES</t>
-  </si>
-  <si>
-    <t>SPRITE</t>
-  </si>
-  <si>
-    <t>Salmòn Rosado</t>
-  </si>
-  <si>
-    <t>PET'S CLASS</t>
-  </si>
-  <si>
-    <t>Morron en lata</t>
-  </si>
-  <si>
-    <t>Puré de berro</t>
-  </si>
-  <si>
-    <t>Pimienta</t>
-  </si>
-  <si>
-    <t>Fileto</t>
-  </si>
-  <si>
-    <t>LUCCHETTI</t>
-  </si>
-  <si>
-    <t>palmitos</t>
-  </si>
-  <si>
-    <t>GREAT VALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choclo en granos </t>
-  </si>
-  <si>
-    <t>INCA</t>
-  </si>
-  <si>
-    <t>queso barra x kg</t>
-  </si>
-  <si>
-    <t>queso regiano</t>
-  </si>
-  <si>
-    <t>vinagreta</t>
-  </si>
-  <si>
-    <t>CASAMCREM</t>
   </si>
   <si>
     <t>ÁGUILA</t>
@@ -2678,9 +2681,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4227,7 +4230,7 @@
       </c>
       <c r="F54" s="62">
         <f t="shared" ref="F54:F60" si="0">B54*E54</f>
-        <v>4000</v>
+        <v>4000.00000000001</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="6"/>
@@ -4366,7 +4369,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="66">
         <f>SUM(F54:F60)</f>
-        <v>4282.53405333333</v>
+        <v>4282.53405333334</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
@@ -4397,7 +4400,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="66">
         <f>F61/C62</f>
-        <v>4282.53405333333</v>
+        <v>4282.53405333334</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="68"/>
@@ -4415,7 +4418,7 @@
       </c>
       <c r="F64" s="66">
         <f>F63*E64+F63</f>
-        <v>6209.67437733333</v>
+        <v>6209.67437733334</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="68"/>
@@ -4432,7 +4435,7 @@
       </c>
       <c r="F65" s="69">
         <f>F64*E65+F64</f>
-        <v>14592.7347867333</v>
+        <v>14592.7347867334</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="68"/>
@@ -4449,7 +4452,7 @@
       </c>
       <c r="F66" s="66">
         <f>F65*1.21</f>
-        <v>17657.2090919473</v>
+        <v>17657.2090919474</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="6"/>
@@ -6867,7 +6870,7 @@
       </c>
       <c r="F219" s="64">
         <f t="shared" si="2"/>
-        <v>1859.33333333333</v>
+        <v>1859.33333333334</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="6"/>
@@ -6880,7 +6883,7 @@
       <c r="E220" s="3"/>
       <c r="F220" s="66">
         <f>SUM(F213:F219)</f>
-        <v>5129.13333333333</v>
+        <v>5129.13333333334</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="6"/>
@@ -7100,7 +7103,7 @@
       </c>
       <c r="F234" s="62">
         <f>B234*E234</f>
-        <v>1859.33333333333</v>
+        <v>1859.33333333334</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1" spans="2:6">
@@ -7110,7 +7113,7 @@
       <c r="E235" s="3"/>
       <c r="F235" s="66">
         <f>SUM(F230:F234)</f>
-        <v>5062.95533333333</v>
+        <v>5062.95533333334</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1" spans="2:6">
@@ -7404,7 +7407,7 @@
       </c>
       <c r="F259" s="62">
         <f>B259*E259</f>
-        <v>2955.55555555556</v>
+        <v>2955.55555555555</v>
       </c>
     </row>
     <row r="260" spans="2:6">
@@ -7450,7 +7453,7 @@
       <c r="E262" s="3"/>
       <c r="F262" s="66">
         <f>SUM(F259:F261)</f>
-        <v>8828.05555555556</v>
+        <v>8828.05555555555</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1" spans="2:6">
@@ -9178,7 +9181,7 @@
       </c>
       <c r="F399" s="62">
         <f>B399*E399</f>
-        <v>732.352941176471</v>
+        <v>732.35294117647</v>
       </c>
     </row>
     <row r="400" spans="2:6">
@@ -9240,7 +9243,7 @@
       <c r="E403" s="3"/>
       <c r="F403" s="66">
         <f>SUM(F398:F402)</f>
-        <v>897.622941176471</v>
+        <v>897.62294117647</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1" spans="2:6">
@@ -9265,7 +9268,7 @@
       <c r="E405" s="3"/>
       <c r="F405" s="66">
         <f>F403/C404</f>
-        <v>897.622941176471</v>
+        <v>897.62294117647</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1" spans="2:6">
@@ -9295,7 +9298,7 @@
       </c>
       <c r="F407" s="69">
         <f>F406*E407+F406</f>
-        <v>3384.0384882353</v>
+        <v>3384.03848823529</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1" spans="2:6">
@@ -9309,7 +9312,7 @@
       </c>
       <c r="F408" s="66">
         <f>F407*1.21</f>
-        <v>4094.68657076471</v>
+        <v>4094.6865707647</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1" spans="2:6">
@@ -9872,7 +9875,7 @@
       </c>
       <c r="F451" s="62">
         <f>B451*E451</f>
-        <v>2953.33333333333</v>
+        <v>2953.33333333334</v>
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1" spans="2:6">
@@ -9882,7 +9885,7 @@
       <c r="E452" s="3"/>
       <c r="F452" s="66">
         <f>SUM(F449:F451)</f>
-        <v>4114.33333333333</v>
+        <v>4114.33333333334</v>
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1" spans="2:6">
@@ -9907,7 +9910,7 @@
       <c r="E454" s="3"/>
       <c r="F454" s="66">
         <f>F452/C453</f>
-        <v>4114.33333333333</v>
+        <v>4114.33333333334</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1" spans="2:6">
@@ -9922,7 +9925,7 @@
       </c>
       <c r="F455" s="66">
         <f>F454*E455+F454</f>
-        <v>5965.78333333333</v>
+        <v>5965.78333333334</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1" spans="2:6">
@@ -9936,7 +9939,7 @@
       </c>
       <c r="F456" s="69">
         <f>F455*E456+F455</f>
-        <v>15630.3523333333</v>
+        <v>15630.3523333334</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1" spans="2:6">
@@ -9950,7 +9953,7 @@
       </c>
       <c r="F457" s="66">
         <f>F456*1.21</f>
-        <v>18912.7263233333</v>
+        <v>18912.7263233334</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1" spans="2:6">
@@ -10033,7 +10036,7 @@
       </c>
       <c r="F464" s="62">
         <f>B464*E464</f>
-        <v>2953.33333333333</v>
+        <v>2953.33333333334</v>
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1" spans="2:6">
@@ -10827,7 +10830,7 @@
       </c>
       <c r="F525" s="62">
         <f>B525*E525</f>
-        <v>2953.33333333333</v>
+        <v>2953.33333333334</v>
       </c>
     </row>
     <row r="526" spans="2:6">
@@ -10853,7 +10856,7 @@
       <c r="E527" s="3"/>
       <c r="F527" s="66">
         <f>SUM(F523:F526)</f>
-        <v>2953.33333333333</v>
+        <v>2953.33333333334</v>
       </c>
     </row>
     <row r="528" ht="15.75" customHeight="1" spans="2:6">
@@ -10878,7 +10881,7 @@
       <c r="E529" s="3"/>
       <c r="F529" s="66">
         <f>F527/C528</f>
-        <v>2953.33333333333</v>
+        <v>2953.33333333334</v>
       </c>
     </row>
     <row r="530" ht="15.75" customHeight="1" spans="2:6">
@@ -10893,7 +10896,7 @@
       </c>
       <c r="F530" s="66">
         <f>F529*E530+F529</f>
-        <v>4282.33333333333</v>
+        <v>4282.33333333334</v>
       </c>
     </row>
     <row r="531" ht="15.75" customHeight="1" spans="2:6">
@@ -11005,7 +11008,7 @@
       </c>
       <c r="F539" s="62">
         <f t="shared" si="9"/>
-        <v>7383.33333333333</v>
+        <v>7383.33333333335</v>
       </c>
     </row>
     <row r="540" spans="2:6">
@@ -11087,7 +11090,7 @@
       <c r="E544" s="3"/>
       <c r="F544" s="66">
         <f>SUM(F537:F543)</f>
-        <v>41539.2333333333</v>
+        <v>41539.2333333334</v>
       </c>
     </row>
     <row r="545" ht="15.75" customHeight="1" spans="2:6">
@@ -11413,7 +11416,7 @@
       </c>
       <c r="F570" s="62">
         <f t="shared" ref="F570:F578" si="11">B570*E570</f>
-        <v>8000</v>
+        <v>8000.00000000001</v>
       </c>
     </row>
     <row r="571" spans="2:6">
@@ -11628,7 +11631,7 @@
       </c>
       <c r="F584" s="66">
         <f>F583*1.21</f>
-        <v>62679.354595</v>
+        <v>62679.3545950001</v>
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1" spans="2:6">
@@ -12341,7 +12344,7 @@
       </c>
       <c r="F639" s="62">
         <f t="shared" si="14"/>
-        <v>260.714285714286</v>
+        <v>260.714285714285</v>
       </c>
     </row>
     <row r="640" spans="2:6">
@@ -12758,7 +12761,7 @@
       </c>
       <c r="F673" s="62">
         <f t="shared" si="16"/>
-        <v>11813.3333333333</v>
+        <v>11813.3333333334</v>
       </c>
     </row>
     <row r="674" spans="2:6">
@@ -12794,7 +12797,7 @@
       </c>
       <c r="F675" s="62">
         <f t="shared" si="16"/>
-        <v>85909.0909090909</v>
+        <v>85909.0909090911</v>
       </c>
     </row>
     <row r="676" ht="15.75" customHeight="1" spans="2:6">
@@ -12829,7 +12832,7 @@
       <c r="E678" s="3"/>
       <c r="F678" s="66">
         <f>F676/C677</f>
-        <v>9204.51172796458</v>
+        <v>9204.51172796459</v>
       </c>
     </row>
     <row r="679" ht="15.75" customHeight="1" spans="2:6">
@@ -12844,7 +12847,7 @@
       </c>
       <c r="F679" s="66">
         <f>F678*E679+F678</f>
-        <v>13346.5420055486</v>
+        <v>13346.5420055487</v>
       </c>
     </row>
     <row r="680" ht="15.75" customHeight="1" spans="2:6">
@@ -12872,7 +12875,7 @@
       </c>
       <c r="F681" s="66">
         <f>F680*1.21</f>
-        <v>32298.6316534277</v>
+        <v>32298.6316534278</v>
       </c>
     </row>
     <row r="682" ht="15.75" customHeight="1" spans="2:6">
@@ -13164,7 +13167,7 @@
       </c>
       <c r="F704" s="62">
         <f t="shared" si="17"/>
-        <v>322.727272727273</v>
+        <v>322.727272727274</v>
       </c>
     </row>
     <row r="705" spans="2:6">
@@ -13260,7 +13263,7 @@
       <c r="E710" s="3"/>
       <c r="F710" s="66">
         <f>SUM(F701:F709)</f>
-        <v>758.284772727273</v>
+        <v>758.284772727274</v>
       </c>
     </row>
     <row r="711" ht="15.75" customHeight="1" spans="2:6">
@@ -13285,7 +13288,7 @@
       <c r="E712" s="3"/>
       <c r="F712" s="66">
         <f>F710/C711</f>
-        <v>758.284772727273</v>
+        <v>758.284772727274</v>
       </c>
     </row>
     <row r="713" ht="15.75" customHeight="1" spans="2:6">
@@ -13328,7 +13331,7 @@
       </c>
       <c r="F715" s="66">
         <f>F714*1.21</f>
-        <v>2926.90339425</v>
+        <v>2926.90339425001</v>
       </c>
     </row>
     <row r="716" ht="15.75" customHeight="1" spans="2:6">
@@ -14081,7 +14084,7 @@
       </c>
       <c r="F773" s="62">
         <f t="shared" si="21"/>
-        <v>46.2548262548263</v>
+        <v>46.2548262548262</v>
       </c>
     </row>
     <row r="774" spans="2:6">
@@ -14671,7 +14674,7 @@
       </c>
       <c r="F817" s="66">
         <f>F816*E817+F816</f>
-        <v>4659.31822916667</v>
+        <v>4659.31822916666</v>
       </c>
     </row>
     <row r="818" ht="15.75" customHeight="1" spans="2:6">
@@ -15126,7 +15129,7 @@
       </c>
       <c r="F854" s="62">
         <f>B854*E854</f>
-        <v>328.709333333333</v>
+        <v>328.709333333334</v>
       </c>
     </row>
     <row r="855" spans="2:6">
@@ -15190,7 +15193,7 @@
       <c r="E858" s="3"/>
       <c r="F858" s="66">
         <f>SUM(F853:F857)</f>
-        <v>8323.00933333333</v>
+        <v>8323.00933333334</v>
       </c>
     </row>
     <row r="859" ht="15.75" customHeight="1" spans="2:6">
@@ -15307,7 +15310,7 @@
       </c>
       <c r="F868" s="62">
         <f>B868*E868</f>
-        <v>4114.28571428571</v>
+        <v>4114.28571428572</v>
       </c>
     </row>
     <row r="869" spans="2:6">
@@ -15369,7 +15372,7 @@
       <c r="E872" s="3"/>
       <c r="F872" s="66">
         <f>SUM(F868:F871)</f>
-        <v>4327.97571428571</v>
+        <v>4327.97571428572</v>
       </c>
     </row>
     <row r="873" ht="15.75" customHeight="1" spans="2:6">
@@ -15394,7 +15397,7 @@
       <c r="E874" s="3"/>
       <c r="F874" s="66">
         <f>F872/C873</f>
-        <v>4327.97571428571</v>
+        <v>4327.97571428572</v>
       </c>
     </row>
     <row r="875" ht="15.75" customHeight="1" spans="2:6">
@@ -15409,7 +15412,7 @@
       </c>
       <c r="F875" s="66">
         <f>F874*E875+F874</f>
-        <v>6275.56478571429</v>
+        <v>6275.5647857143</v>
       </c>
     </row>
     <row r="876" ht="15.75" customHeight="1" spans="2:7">
@@ -15424,7 +15427,7 @@
       </c>
       <c r="F876" s="69">
         <f>F875*E876+F875</f>
-        <v>16316.4684428571</v>
+        <v>16316.4684428572</v>
       </c>
       <c r="G876" s="1" t="s">
         <v>254</v>
@@ -15441,7 +15444,7 @@
       </c>
       <c r="F877" s="66">
         <f>F876*1.21</f>
-        <v>19742.9268158571</v>
+        <v>19742.9268158572</v>
       </c>
       <c r="G877" s="1" t="s">
         <v>255</v>
@@ -17863,7 +17866,7 @@
       </c>
       <c r="F1066" s="62">
         <f t="shared" ref="F1066:F1075" si="27">B1066*E1066</f>
-        <v>7885.84474885845</v>
+        <v>7885.84474885844</v>
       </c>
     </row>
     <row r="1067" spans="2:6">
@@ -18073,7 +18076,7 @@
       </c>
       <c r="F1079" s="66">
         <f>F1078*E1079+F1078</f>
-        <v>4868.8049698502</v>
+        <v>4868.80496985019</v>
       </c>
     </row>
     <row r="1080" ht="15.75" customHeight="1" spans="2:6">
@@ -18467,7 +18470,7 @@
       </c>
       <c r="F1108" s="62">
         <f t="shared" si="29"/>
-        <v>4430</v>
+        <v>4430.00000000001</v>
       </c>
     </row>
     <row r="1109" spans="2:6">
@@ -18520,7 +18523,7 @@
       <c r="E1112" s="3"/>
       <c r="F1112" s="66">
         <f>F1110/C1111</f>
-        <v>485.304583333333</v>
+        <v>485.304583333334</v>
       </c>
     </row>
     <row r="1113" ht="15.75" customHeight="1" spans="2:6">
@@ -18535,7 +18538,7 @@
       </c>
       <c r="F1113" s="66">
         <f>F1112*E1113+F1112</f>
-        <v>703.691645833333</v>
+        <v>703.691645833334</v>
       </c>
     </row>
     <row r="1114" ht="15.75" customHeight="1" spans="2:6">
@@ -18737,7 +18740,7 @@
       </c>
       <c r="F1127" s="62">
         <f t="shared" si="30"/>
-        <v>7383.33333333333</v>
+        <v>7383.33333333335</v>
       </c>
     </row>
     <row r="1128" ht="15.75" customHeight="1" spans="2:6">
@@ -18863,7 +18866,7 @@
       </c>
       <c r="F1138" s="62">
         <f>B1138*E1138</f>
-        <v>8860</v>
+        <v>8860.00000000002</v>
       </c>
     </row>
     <row r="1139" spans="2:6">
@@ -18998,7 +19001,7 @@
       </c>
       <c r="F1147" s="69">
         <f>F1146*E1147+F1146</f>
-        <v>4412.20693333333</v>
+        <v>4412.20693333334</v>
       </c>
     </row>
     <row r="1148" ht="15.75" customHeight="1" spans="2:6">
@@ -19012,7 +19015,7 @@
       </c>
       <c r="F1148" s="66">
         <f>F1147*1.21</f>
-        <v>5338.77038933333</v>
+        <v>5338.77038933334</v>
       </c>
     </row>
     <row r="1149" ht="15.75" customHeight="1" spans="2:6">
@@ -19384,8 +19387,8 @@
   <sheetPr/>
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12.75"/>
@@ -19460,19 +19463,19 @@
         <v>335</v>
       </c>
       <c r="D7" s="38">
-        <v>1.5</v>
+        <v>900</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>336</v>
       </c>
       <c r="F7" s="38">
-        <v>2265</v>
+        <v>1685</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H7" s="39">
-        <v>1510</v>
+        <v>1872.22222222222</v>
       </c>
       <c r="I7" s="47">
         <v>1</v>
@@ -19495,16 +19498,16 @@
         <v>500</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F8" s="38">
-        <v>4320.07</v>
+        <v>7664</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H8" s="39">
-        <v>8640.14</v>
+        <v>15328</v>
       </c>
       <c r="I8" s="47">
         <v>1</v>
@@ -19521,22 +19524,22 @@
         <v>119</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="38">
         <v>180</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="38">
-        <v>665</v>
+        <v>1629</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H9" s="39">
-        <v>3694.44444444444</v>
+        <v>9050</v>
       </c>
       <c r="I9" s="47">
         <v>1</v>
@@ -19550,25 +19553,25 @@
         <v>4</v>
       </c>
       <c r="B10" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>342</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>343</v>
       </c>
       <c r="D10" s="38">
         <v>500</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F10" s="38">
-        <v>3279</v>
+        <v>4099</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H10" s="39">
-        <v>6558</v>
+        <v>8198</v>
       </c>
       <c r="I10" s="47">
         <v>1</v>
@@ -19582,10 +19585,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>344</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>345</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -19604,16 +19607,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>346</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>347</v>
       </c>
       <c r="D12" s="38">
         <v>50</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F12" s="38">
         <v>1400</v>
@@ -19636,21 +19639,21 @@
         <v>7</v>
       </c>
       <c r="B13" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="C13" s="43" t="s">
         <v>348</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>349</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="44">
-        <v>2097.5</v>
+        <v>1990.9</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H13" s="39">
-        <v>2097.5</v>
+        <v>1990.9</v>
       </c>
       <c r="I13" s="47">
         <v>1</v>
@@ -19664,10 +19667,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -19695,7 +19698,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -19714,10 +19717,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -19739,13 +19742,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D17" s="38">
         <v>90</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F17" s="38">
         <v>2715</v>
@@ -19768,21 +19771,21 @@
         <v>12</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="44">
-        <v>1299</v>
+        <v>1249</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H18" s="39">
-        <v>1299</v>
+        <v>1249</v>
       </c>
       <c r="I18" s="47">
         <v>1</v>
@@ -19798,23 +19801,23 @@
       <c r="B19" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>354</v>
+      <c r="C19" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="D19" s="38">
         <v>170</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F19" s="38">
-        <v>2490</v>
+        <v>1890</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H19" s="39">
-        <v>14647.0588235294</v>
+        <v>1890</v>
       </c>
       <c r="I19" s="47">
         <v>1</v>
@@ -19831,7 +19834,7 @@
         <v>68</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D20" s="38">
         <v>1</v>
@@ -19860,16 +19863,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="38">
         <v>250</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F21" s="38">
         <v>990</v>
@@ -19892,10 +19895,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -19923,7 +19926,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -19951,7 +19954,7 @@
         <v>284</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -19976,10 +19979,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -19998,21 +20001,21 @@
         <v>20</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38">
-        <v>1369.5</v>
+        <v>1644.5</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H26" s="39">
-        <v>1369.5</v>
+        <v>1644.5</v>
       </c>
       <c r="I26" s="47">
         <v>5</v>
@@ -20023,10 +20026,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -20048,21 +20051,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38">
-        <v>7999</v>
+        <v>8999</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H28" s="39">
-        <v>7999</v>
+        <v>8999</v>
       </c>
       <c r="I28" s="47">
         <v>1</v>
@@ -20073,27 +20076,27 @@
         <v>23</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38">
-        <v>5165</v>
+        <v>6514.5</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H29" s="39">
-        <v>5165</v>
+        <v>6514.5</v>
       </c>
       <c r="I29" s="47">
         <v>1</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="1:11">
@@ -20101,10 +20104,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -20115,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="46" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="1:11">
@@ -20123,21 +20126,21 @@
         <v>25</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38">
-        <v>749</v>
+        <v>899</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H31" s="39">
-        <v>749</v>
+        <v>899</v>
       </c>
       <c r="I31" s="47">
         <v>1</v>
@@ -20151,25 +20154,25 @@
         <v>26</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D32" s="38">
         <v>150</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F32" s="38">
-        <v>805</v>
+        <v>1050</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H32" s="39">
-        <v>5366.66666666667</v>
+        <v>7000</v>
       </c>
       <c r="I32" s="47">
         <v>1</v>
@@ -20183,25 +20186,25 @@
         <v>27</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>349</v>
+        <v>367</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>368</v>
       </c>
       <c r="D33" s="38">
         <v>250</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="38">
-        <v>4000</v>
+        <v>3240</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H33" s="39">
-        <v>4000</v>
+        <v>12960</v>
       </c>
       <c r="I33" s="47">
         <v>1</v>
@@ -20215,25 +20218,25 @@
         <v>28</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="D34" s="38">
         <v>40</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F34" s="38">
-        <v>604</v>
+        <v>4990</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H34" s="39">
-        <v>15100</v>
+        <v>4990</v>
       </c>
       <c r="I34" s="47">
         <v>1</v>
@@ -20247,10 +20250,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -20272,18 +20275,18 @@
         <v>128</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38">
-        <v>859</v>
+        <v>999</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H36" s="39">
-        <v>859</v>
+        <v>999</v>
       </c>
       <c r="I36" s="47">
         <v>1</v>
@@ -20297,10 +20300,10 @@
         <v>32</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -20322,7 +20325,7 @@
         <v>194</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -20339,7 +20342,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="1:11">
@@ -20350,18 +20353,18 @@
         <v>41</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
       <c r="F39" s="38">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H39" s="39">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="I39" s="47">
         <v>6</v>
@@ -20375,21 +20378,21 @@
         <v>35</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
       <c r="F40" s="38">
-        <v>889</v>
+        <v>989</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H40" s="39">
-        <v>889</v>
+        <v>989</v>
       </c>
       <c r="I40" s="47">
         <v>3</v>
@@ -20406,22 +20409,22 @@
         <v>121</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="38">
         <v>200</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F41" s="38">
-        <v>3899</v>
+        <v>6999</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H41" s="39">
-        <v>3899</v>
+        <v>6999</v>
       </c>
       <c r="I41" s="47">
         <v>1</v>
@@ -20435,10 +20438,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -20457,25 +20460,25 @@
         <v>38</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D43" s="38">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F43" s="38">
-        <v>1630</v>
+        <v>2480</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H43" s="39">
-        <v>29636.3636363636</v>
+        <v>27555.5555555556</v>
       </c>
       <c r="I43" s="47">
         <v>1</v>
@@ -20489,10 +20492,10 @@
         <v>39</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -20511,10 +20514,10 @@
         <v>40</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="38"/>
@@ -20533,16 +20536,16 @@
         <v>41</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D46" s="38">
         <v>30</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F46" s="38">
         <v>1599</v>
@@ -20565,25 +20568,25 @@
         <v>42</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D47" s="38">
         <v>200</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F47" s="38">
-        <v>751</v>
+        <v>1390</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H47" s="39">
-        <v>3755</v>
+        <v>6950</v>
       </c>
       <c r="I47" s="47">
         <v>1</v>
@@ -20597,31 +20600,31 @@
         <v>43</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D48" s="38">
         <v>50</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F48" s="38">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H48" s="39">
-        <v>12780</v>
+        <v>13000</v>
       </c>
       <c r="I48" s="47">
         <v>1</v>
       </c>
       <c r="K48" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:11">
@@ -20629,27 +20632,27 @@
         <v>44</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="38"/>
       <c r="F49" s="38">
-        <v>8673.95</v>
+        <v>8488.95</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H49" s="39">
-        <v>8673.95</v>
+        <v>8488.95</v>
       </c>
       <c r="I49" s="47">
         <v>1</v>
       </c>
       <c r="K49" s="46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:11">
@@ -20660,7 +20663,7 @@
         <v>80</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="38"/>
@@ -20671,7 +20674,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="46" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -20679,21 +20682,21 @@
         <v>46</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="38"/>
       <c r="F51" s="38">
-        <v>4999</v>
+        <v>4499</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H51" s="39">
-        <v>4999</v>
+        <v>4499</v>
       </c>
       <c r="I51" s="47">
         <v>1</v>
@@ -20707,22 +20710,22 @@
         <v>122</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D52" s="38">
-        <v>60</v>
+        <v>520</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F52" s="38">
-        <v>886</v>
+        <v>2530</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H52" s="39">
-        <v>14766.6666666667</v>
+        <v>4865.38461538462</v>
       </c>
       <c r="I52" s="47">
         <v>1</v>
@@ -20733,16 +20736,16 @@
         <v>48</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D53" s="38">
         <v>95</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F53" s="38">
         <v>994</v>
@@ -20762,25 +20765,25 @@
         <v>49</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D54" s="38">
         <v>200</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F54" s="38">
-        <v>1300</v>
+        <v>2089</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H54" s="39">
-        <v>6500</v>
+        <v>10445</v>
       </c>
       <c r="I54" s="47">
         <v>1</v>
@@ -20791,10 +20794,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
@@ -20813,7 +20816,7 @@
         <v>129</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -20829,25 +20832,25 @@
         <v>52</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D57" s="38">
         <v>50</v>
       </c>
       <c r="E57" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F57" s="38">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H57" s="39">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="I57" s="47">
         <v>1</v>
@@ -20861,7 +20864,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="38"/>
@@ -20880,7 +20883,7 @@
         <v>109</v>
       </c>
       <c r="C59" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D59" s="38"/>
       <c r="E59" s="38"/>
@@ -20896,10 +20899,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="38"/>
@@ -20921,21 +20924,21 @@
         <v>56</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="38"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38">
-        <v>866</v>
+        <v>1080</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H61" s="39">
-        <v>866</v>
+        <v>1080</v>
       </c>
       <c r="I61" s="47">
         <v>1</v>
@@ -20946,21 +20949,21 @@
         <v>57</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38">
-        <v>1763</v>
+        <v>2432.08</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H62" s="39">
-        <v>1763</v>
+        <v>2432.08</v>
       </c>
       <c r="I62" s="47">
         <v>1</v>
@@ -20971,25 +20974,25 @@
         <v>58</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D63" s="38">
         <v>800</v>
       </c>
       <c r="E63" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F63" s="38">
-        <v>2875</v>
+        <v>1890</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H63" s="39">
-        <v>2875</v>
+        <v>1890</v>
       </c>
       <c r="I63" s="47">
         <v>1</v>
@@ -21000,10 +21003,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="38"/>
@@ -21019,25 +21022,25 @@
         <v>60</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D65" s="38">
         <v>110</v>
       </c>
       <c r="E65" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F65" s="38">
-        <v>809</v>
+        <v>903</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H65" s="39">
-        <v>7354.54545454545</v>
+        <v>8209.09090909091</v>
       </c>
       <c r="I65" s="47">
         <v>1</v>
@@ -21048,21 +21051,21 @@
         <v>61</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="38"/>
       <c r="F66" s="38">
-        <v>2396</v>
+        <v>4835</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H66" s="39">
-        <v>2396</v>
+        <v>4835</v>
       </c>
       <c r="I66" s="47">
         <v>4</v>
@@ -21076,22 +21079,22 @@
         <v>67</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D67" s="38">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F67" s="38">
-        <v>2433</v>
+        <v>2780</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H67" s="39">
-        <v>5406.66666666667</v>
+        <v>13900</v>
       </c>
       <c r="I67" s="47">
         <v>1</v>
@@ -21102,25 +21105,25 @@
         <v>63</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D68" s="38">
         <v>500</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F68" s="38">
-        <v>2245</v>
+        <v>2759</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H68" s="39">
-        <v>4490</v>
+        <v>5518</v>
       </c>
       <c r="I68" s="47">
         <v>1</v>
@@ -21131,21 +21134,21 @@
         <v>64</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D69" s="38"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38">
-        <v>3220</v>
+        <v>4115</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H69" s="39">
-        <v>3220</v>
+        <v>4115</v>
       </c>
       <c r="I69" s="47">
         <v>1</v>
@@ -21156,25 +21159,25 @@
         <v>65</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>410</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="D70" s="38">
         <v>190</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F70" s="38">
-        <v>1710</v>
+        <v>899</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H70" s="39">
-        <v>9000</v>
+        <v>899</v>
       </c>
       <c r="I70" s="47">
         <v>1</v>
@@ -21185,16 +21188,16 @@
         <v>66</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D71" s="38">
         <v>140</v>
       </c>
       <c r="E71" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F71" s="38">
         <v>730</v>
@@ -21214,25 +21217,25 @@
         <v>67</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D72" s="38">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F72" s="38">
-        <v>605</v>
+        <v>809</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H72" s="39">
-        <v>24200</v>
+        <v>44944.4444444445</v>
       </c>
       <c r="I72" s="47">
         <v>1</v>
@@ -21243,10 +21246,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D73" s="38"/>
       <c r="E73" s="38"/>
@@ -21262,21 +21265,21 @@
         <v>69</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D74" s="38"/>
       <c r="E74" s="38"/>
       <c r="F74" s="38">
-        <v>10939.5</v>
+        <v>11880</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H74" s="39">
-        <v>10939.5</v>
+        <v>11880</v>
       </c>
       <c r="I74" s="47">
         <v>1</v>
@@ -21290,7 +21293,7 @@
         <v>82</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D75" s="38">
         <v>1</v>
@@ -21299,13 +21302,13 @@
         <v>10</v>
       </c>
       <c r="F75" s="38">
-        <v>1109</v>
+        <v>825</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H75" s="39">
-        <v>1109</v>
+        <v>825</v>
       </c>
       <c r="I75" s="47">
         <v>1</v>
@@ -21319,22 +21322,22 @@
         <v>73</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D76" s="38">
         <v>1</v>
       </c>
       <c r="E76" s="38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F76" s="38">
-        <v>1200</v>
+        <v>1620</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H76" s="39">
-        <v>1200</v>
+        <v>1620</v>
       </c>
       <c r="I76" s="47">
         <v>1</v>
@@ -21345,10 +21348,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" s="38"/>
       <c r="E77" s="38"/>
@@ -21367,18 +21370,18 @@
         <v>14</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D78" s="38"/>
       <c r="E78" s="38"/>
       <c r="F78" s="38">
-        <v>1115</v>
+        <v>1505</v>
       </c>
       <c r="G78" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H78" s="39">
-        <v>1115</v>
+        <v>1505</v>
       </c>
       <c r="I78" s="47">
         <v>10</v>
@@ -21392,18 +21395,18 @@
         <v>152</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
       <c r="F79" s="38">
-        <v>7123</v>
+        <v>8518</v>
       </c>
       <c r="G79" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H79" s="39">
-        <v>7123</v>
+        <v>8518</v>
       </c>
       <c r="I79" s="47">
         <v>1</v>
@@ -21417,18 +21420,18 @@
         <v>97</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
       <c r="F80" s="38">
-        <v>10439.5</v>
+        <v>16228.5</v>
       </c>
       <c r="G80" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H80" s="39">
-        <v>10439.5</v>
+        <v>16228.5</v>
       </c>
       <c r="I80" s="47">
         <v>1</v>
@@ -21439,21 +21442,21 @@
         <v>77</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
       <c r="F81" s="38">
-        <v>5949.5</v>
+        <v>6990</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H81" s="39">
-        <v>5949.5</v>
+        <v>6990</v>
       </c>
       <c r="I81" s="47">
         <v>10</v>
@@ -21464,10 +21467,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -21486,22 +21489,22 @@
         <v>180</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D83" s="38">
         <v>1</v>
       </c>
       <c r="E83" s="38" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="F83" s="38">
-        <v>1550</v>
+        <v>1940</v>
       </c>
       <c r="G83" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H83" s="39">
-        <v>1550</v>
+        <v>1940</v>
       </c>
       <c r="I83" s="47">
         <v>1</v>
@@ -21512,21 +21515,21 @@
         <v>81</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
       <c r="F84" s="38">
-        <v>1300</v>
+        <v>1499</v>
       </c>
       <c r="G84" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H84" s="39">
-        <v>1300</v>
+        <v>1499</v>
       </c>
       <c r="I84" s="47">
         <v>1</v>
@@ -21537,10 +21540,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D85" s="38"/>
       <c r="E85" s="38"/>
@@ -21556,21 +21559,21 @@
         <v>83</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D86" s="38"/>
       <c r="E86" s="38"/>
       <c r="F86" s="38">
-        <v>1550</v>
+        <v>1499</v>
       </c>
       <c r="G86" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H86" s="39">
-        <v>1550</v>
+        <v>1499</v>
       </c>
       <c r="I86" s="47">
         <v>1</v>
@@ -21581,10 +21584,10 @@
         <v>84</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
@@ -21600,21 +21603,21 @@
         <v>85</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="38"/>
       <c r="F88" s="38">
-        <v>5450</v>
+        <v>2555</v>
       </c>
       <c r="G88" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H88" s="39">
-        <v>5450</v>
+        <v>2555</v>
       </c>
       <c r="I88" s="47">
         <v>1</v>
@@ -21628,22 +21631,22 @@
         <v>135</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D89" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F89" s="38">
-        <v>166</v>
+        <v>400</v>
       </c>
       <c r="G89" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H89" s="39">
-        <v>3320</v>
+        <v>4000</v>
       </c>
       <c r="I89" s="47">
         <v>1</v>
@@ -21654,10 +21657,10 @@
         <v>87</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="38"/>
       <c r="E90" s="38"/>
@@ -21673,25 +21676,25 @@
         <v>88</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="C91" s="38" t="s">
-        <v>432</v>
+        <v>429</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="D91" s="38">
         <v>22</v>
       </c>
       <c r="E91" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F91" s="38">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="G91" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H91" s="39">
-        <v>122727.272727273</v>
+        <v>2300</v>
       </c>
       <c r="I91" s="47">
         <v>1</v>
@@ -21702,10 +21705,10 @@
         <v>89</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C92" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D92" s="38"/>
       <c r="E92" s="38"/>
@@ -21721,25 +21724,25 @@
         <v>90</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D93" s="38">
         <v>220</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F93" s="38">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="G93" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H93" s="39">
-        <v>3431.81818181818</v>
+        <v>3577.27272727273</v>
       </c>
       <c r="I93" s="47">
         <v>1</v>
@@ -21750,10 +21753,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D94" s="38"/>
       <c r="E94" s="38"/>
@@ -21775,25 +21778,25 @@
         <v>92</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C95" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D95" s="38">
         <v>200</v>
       </c>
       <c r="E95" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F95" s="38">
-        <v>796</v>
+        <v>1190</v>
       </c>
       <c r="G95" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H95" s="39">
-        <v>3980</v>
+        <v>5950</v>
       </c>
       <c r="I95" s="47">
         <v>1</v>
@@ -21807,18 +21810,18 @@
         <v>75</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D96" s="38"/>
       <c r="E96" s="38"/>
       <c r="F96" s="38">
-        <v>975.24</v>
+        <v>665</v>
       </c>
       <c r="G96" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H96" s="39">
-        <v>975.24</v>
+        <v>665</v>
       </c>
       <c r="I96" s="47">
         <v>1</v>
@@ -21829,25 +21832,25 @@
         <v>94</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D97" s="38">
         <v>7.5</v>
       </c>
       <c r="E97" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F97" s="38">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="G97" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H97" s="39">
-        <v>24533.3333333333</v>
+        <v>33333.3333333333</v>
       </c>
       <c r="I97" s="47">
         <v>5</v>
@@ -21858,21 +21861,21 @@
         <v>95</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
       <c r="F98" s="38">
-        <v>2906.5</v>
+        <v>2202</v>
       </c>
       <c r="G98" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H98" s="39">
-        <v>2906.5</v>
+        <v>2202</v>
       </c>
       <c r="I98" s="47">
         <v>1</v>
@@ -21883,21 +21886,21 @@
         <v>96</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D99" s="38"/>
       <c r="E99" s="38"/>
       <c r="F99" s="38">
-        <v>7094.5</v>
+        <v>7274</v>
       </c>
       <c r="G99" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H99" s="39">
-        <v>7094.5</v>
+        <v>7274</v>
       </c>
       <c r="I99" s="47">
         <v>1</v>
@@ -21908,10 +21911,10 @@
         <v>97</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D100" s="38">
         <v>1</v>
@@ -21940,22 +21943,22 @@
         <v>130</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D101" s="38">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="E101" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F101" s="38">
-        <v>809</v>
+        <v>2149</v>
       </c>
       <c r="G101" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H101" s="39">
-        <v>4045</v>
+        <v>2262.1052631579</v>
       </c>
       <c r="I101" s="47">
         <v>1</v>
@@ -21966,10 +21969,10 @@
         <v>99</v>
       </c>
       <c r="B102" s="40" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C102" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D102" s="38"/>
       <c r="E102" s="38"/>
@@ -21985,21 +21988,21 @@
         <v>100</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
       <c r="F103" s="38">
-        <v>2850</v>
+        <v>3345</v>
       </c>
       <c r="G103" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H103" s="39">
-        <v>2850</v>
+        <v>3345</v>
       </c>
       <c r="I103" s="47">
         <v>1</v>
@@ -22010,10 +22013,10 @@
         <v>101</v>
       </c>
       <c r="B104" s="42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D104" s="38">
         <v>1</v>
@@ -22022,13 +22025,13 @@
         <v>10</v>
       </c>
       <c r="F104" s="38">
-        <v>1699.5</v>
+        <v>1600</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H104" s="39">
-        <v>1699.5</v>
+        <v>1600</v>
       </c>
       <c r="I104" s="47">
         <v>1</v>
@@ -22039,16 +22042,16 @@
         <v>102</v>
       </c>
       <c r="B105" s="42" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D105" s="38">
         <v>500</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F105" s="38">
         <v>6689</v>
@@ -22068,21 +22071,21 @@
         <v>103</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
       <c r="F106" s="38">
-        <v>1535</v>
+        <v>1610</v>
       </c>
       <c r="G106" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H106" s="39">
-        <v>1535</v>
+        <v>1610</v>
       </c>
       <c r="I106" s="47">
         <v>1</v>
@@ -22096,7 +22099,7 @@
         <v>126</v>
       </c>
       <c r="C107" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -22112,25 +22115,25 @@
         <v>106</v>
       </c>
       <c r="B108" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D108" s="38">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="E108" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F108" s="38">
-        <v>1580</v>
+        <v>1940</v>
       </c>
       <c r="G108" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H108" s="39">
-        <v>8315.78947368421</v>
+        <v>6466.66666666667</v>
       </c>
       <c r="I108" s="47">
         <v>1</v>
@@ -22144,18 +22147,18 @@
         <v>102</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
       <c r="F109" s="38">
-        <v>1115</v>
+        <v>1505</v>
       </c>
       <c r="G109" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H109" s="39">
-        <v>1115</v>
+        <v>1505</v>
       </c>
       <c r="I109" s="47">
         <v>1</v>
@@ -22169,18 +22172,18 @@
         <v>153</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" s="38"/>
       <c r="E110" s="38"/>
       <c r="F110" s="38">
-        <v>6203</v>
+        <v>8049.5</v>
       </c>
       <c r="G110" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H110" s="39">
-        <v>6203</v>
+        <v>8049.5</v>
       </c>
       <c r="I110" s="47">
         <v>1</v>
@@ -22191,25 +22194,25 @@
         <v>113</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D111" s="38">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F111" s="38">
-        <v>1195</v>
+        <v>839</v>
       </c>
       <c r="G111" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H111" s="39">
-        <v>2390</v>
+        <v>3356</v>
       </c>
       <c r="I111" s="47">
         <v>1</v>
@@ -22223,7 +22226,7 @@
         <v>94</v>
       </c>
       <c r="C112" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D112" s="38"/>
       <c r="E112" s="38"/>
@@ -22239,10 +22242,10 @@
         <v>116</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C113" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D113" s="38"/>
       <c r="E113" s="38"/>
@@ -22258,10 +22261,10 @@
         <v>117</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C114" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D114" s="38"/>
       <c r="E114" s="38"/>
@@ -22277,25 +22280,25 @@
         <v>119</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D115" s="38">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E115" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F115" s="38">
-        <v>1470</v>
+        <v>2290</v>
       </c>
       <c r="G115" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H115" s="39">
-        <v>5880</v>
+        <v>22900</v>
       </c>
       <c r="I115" s="47">
         <v>1</v>
@@ -22306,10 +22309,10 @@
         <v>120</v>
       </c>
       <c r="B116" s="40" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C116" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D116" s="38"/>
       <c r="E116" s="38"/>
@@ -22328,7 +22331,7 @@
         <v>133</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D117" s="38"/>
       <c r="E117" s="38"/>
@@ -22347,7 +22350,7 @@
         <v>24</v>
       </c>
       <c r="C118" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
@@ -22366,18 +22369,18 @@
         <v>18</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D119" s="38"/>
       <c r="E119" s="38"/>
       <c r="F119" s="38">
-        <v>1472.5</v>
+        <v>686</v>
       </c>
       <c r="G119" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H119" s="39">
-        <v>1472.5</v>
+        <v>686</v>
       </c>
       <c r="I119" s="47">
         <v>1</v>
@@ -22391,18 +22394,18 @@
         <v>65</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D120" s="38"/>
       <c r="E120" s="38"/>
       <c r="F120" s="38">
-        <v>861.56</v>
+        <v>1231.06</v>
       </c>
       <c r="G120" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H120" s="39">
-        <v>861.56</v>
+        <v>1231.06</v>
       </c>
       <c r="I120" s="47">
         <v>1</v>
@@ -22413,10 +22416,10 @@
         <v>127</v>
       </c>
       <c r="B121" s="40" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C121" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D121" s="38"/>
       <c r="E121" s="38"/>
@@ -22435,18 +22438,18 @@
         <v>11</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
       <c r="F122" s="38">
-        <v>8770</v>
+        <v>9273</v>
       </c>
       <c r="G122" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H122" s="39">
-        <v>8770</v>
+        <v>9273</v>
       </c>
       <c r="I122" s="47">
         <v>1</v>
@@ -22460,18 +22463,18 @@
         <v>143</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D123" s="38"/>
       <c r="E123" s="38"/>
       <c r="F123" s="38">
-        <v>8770</v>
+        <v>9273</v>
       </c>
       <c r="G123" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H123" s="39">
-        <v>8770</v>
+        <v>9273</v>
       </c>
       <c r="I123" s="47">
         <v>1</v>
@@ -22485,7 +22488,7 @@
         <v>146</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D124" s="38"/>
       <c r="E124" s="38"/>
@@ -22510,18 +22513,18 @@
         <v>43</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
       <c r="F125" s="38">
-        <v>2830.5</v>
+        <v>3470</v>
       </c>
       <c r="G125" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H125" s="39">
-        <v>2830.5</v>
+        <v>3470</v>
       </c>
       <c r="I125" s="47">
         <v>1</v>
@@ -22535,18 +22538,18 @@
         <v>123</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" s="38"/>
       <c r="E126" s="38"/>
       <c r="F126" s="38">
-        <v>1230</v>
+        <v>1435</v>
       </c>
       <c r="G126" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H126" s="39">
-        <v>1230</v>
+        <v>1435</v>
       </c>
       <c r="I126" s="47">
         <v>1</v>
@@ -22557,21 +22560,21 @@
         <v>134</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
       <c r="F127" s="38">
-        <v>5332</v>
+        <v>5607</v>
       </c>
       <c r="G127" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H127" s="39">
-        <v>5332</v>
+        <v>5607</v>
       </c>
       <c r="I127" s="47">
         <v>1</v>
@@ -22582,10 +22585,10 @@
         <v>135</v>
       </c>
       <c r="B128" s="40" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
@@ -22601,10 +22604,10 @@
         <v>136</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C129" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D129" s="38"/>
       <c r="E129" s="38"/>
@@ -22620,10 +22623,10 @@
         <v>137</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
@@ -22648,7 +22651,7 @@
         <v>112</v>
       </c>
       <c r="C131" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D131" s="38"/>
       <c r="E131" s="38"/>
@@ -22664,10 +22667,10 @@
         <v>139</v>
       </c>
       <c r="B132" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C132" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D132" s="38"/>
       <c r="E132" s="38"/>
@@ -22686,18 +22689,18 @@
         <v>85</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D133" s="38"/>
       <c r="E133" s="38"/>
       <c r="F133" s="38">
-        <v>3430</v>
+        <v>4435</v>
       </c>
       <c r="G133" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H133" s="39">
-        <v>3430</v>
+        <v>4435</v>
       </c>
       <c r="I133" s="47">
         <v>1</v>
@@ -22708,25 +22711,25 @@
         <v>141</v>
       </c>
       <c r="B134" s="40" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C134" s="38" t="s">
-        <v>385</v>
+        <v>462</v>
       </c>
       <c r="D134" s="38">
         <v>25</v>
       </c>
       <c r="E134" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F134" s="38">
-        <v>635</v>
+        <v>729</v>
       </c>
       <c r="G134" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H134" s="39">
-        <v>25400</v>
+        <v>29160</v>
       </c>
       <c r="I134" s="47">
         <v>1</v>
@@ -22739,23 +22742,23 @@
       <c r="B135" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="38" t="s">
-        <v>465</v>
+      <c r="C135" s="43" t="s">
+        <v>348</v>
       </c>
       <c r="D135" s="38">
         <v>21</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F135" s="38">
-        <v>480</v>
+        <v>1164.5</v>
       </c>
       <c r="G135" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H135" s="39">
-        <v>22857.1428571429</v>
+        <v>1164.5</v>
       </c>
       <c r="I135" s="47">
         <v>1</v>
@@ -22766,25 +22769,25 @@
         <v>143</v>
       </c>
       <c r="B136" s="42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C136" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D136" s="38">
         <v>1.75</v>
       </c>
       <c r="E136" s="38" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="F136" s="38">
-        <v>937</v>
+        <v>1400</v>
       </c>
       <c r="G136" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H136" s="39">
-        <v>535.428571428571</v>
+        <v>800</v>
       </c>
       <c r="I136" s="47">
         <v>1</v>
@@ -22798,18 +22801,18 @@
         <v>141</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D137" s="38"/>
       <c r="E137" s="38"/>
       <c r="F137" s="38">
-        <v>7984.5</v>
+        <v>8905</v>
       </c>
       <c r="G137" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H137" s="39">
-        <v>7984.5</v>
+        <v>8905</v>
       </c>
       <c r="I137" s="47">
         <v>1</v>
@@ -22823,18 +22826,18 @@
         <v>211</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D138" s="38"/>
       <c r="E138" s="38"/>
       <c r="F138" s="38">
-        <v>6497.5</v>
+        <v>9007.5</v>
       </c>
       <c r="G138" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H138" s="39">
-        <v>6497.5</v>
+        <v>9007.5</v>
       </c>
       <c r="I138" s="47">
         <v>1</v>
@@ -22845,21 +22848,21 @@
         <v>146</v>
       </c>
       <c r="B139" s="42" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D139" s="38"/>
       <c r="E139" s="38"/>
       <c r="F139" s="38">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="G139" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H139" s="39">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="I139" s="47">
         <v>1</v>
@@ -22873,18 +22876,18 @@
         <v>89</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D140" s="38"/>
       <c r="E140" s="38"/>
       <c r="F140" s="38">
-        <v>1122</v>
+        <v>1374</v>
       </c>
       <c r="G140" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H140" s="39">
-        <v>1122</v>
+        <v>1374</v>
       </c>
       <c r="I140" s="47">
         <v>1</v>
@@ -22898,18 +22901,18 @@
         <v>98</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D141" s="38"/>
       <c r="E141" s="38"/>
       <c r="F141" s="38">
-        <v>5290</v>
+        <v>5347.5</v>
       </c>
       <c r="G141" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H141" s="39">
-        <v>5290</v>
+        <v>5347.5</v>
       </c>
       <c r="I141" s="47">
         <v>1</v>
@@ -22920,21 +22923,21 @@
         <v>150</v>
       </c>
       <c r="B142" s="40" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D142" s="38"/>
       <c r="E142" s="38"/>
       <c r="F142" s="38">
-        <v>5218</v>
+        <v>7290.5</v>
       </c>
       <c r="G142" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H142" s="39">
-        <v>5218</v>
+        <v>7290.5</v>
       </c>
       <c r="I142" s="47">
         <v>1</v>
@@ -22945,25 +22948,25 @@
         <v>151</v>
       </c>
       <c r="B143" s="40" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D143" s="38">
         <v>180</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F143" s="38">
-        <v>2209</v>
+        <v>2539</v>
       </c>
       <c r="G143" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H143" s="39">
-        <v>2209</v>
+        <v>2539</v>
       </c>
       <c r="I143" s="47">
         <v>1</v>
@@ -22974,25 +22977,25 @@
         <v>154</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D144" s="38">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="E144" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F144" s="38">
-        <v>1320</v>
+        <v>1724</v>
       </c>
       <c r="G144" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H144" s="39">
-        <v>2907.48898678414</v>
+        <v>3448</v>
       </c>
       <c r="I144" s="47">
         <v>1</v>
@@ -23003,21 +23006,21 @@
         <v>156</v>
       </c>
       <c r="B145" s="42" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C145" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D145" s="38"/>
       <c r="E145" s="38"/>
       <c r="F145" s="38">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="G145" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H145" s="39">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="I145" s="47">
         <v>1</v>
@@ -23028,21 +23031,21 @@
         <v>157</v>
       </c>
       <c r="B146" s="42" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C146" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D146" s="38"/>
       <c r="E146" s="38"/>
       <c r="F146" s="38">
-        <v>799</v>
+        <v>874</v>
       </c>
       <c r="G146" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H146" s="39">
-        <v>799</v>
+        <v>874</v>
       </c>
       <c r="I146" s="47">
         <v>1</v>
@@ -23053,16 +23056,16 @@
         <v>158</v>
       </c>
       <c r="B147" s="42" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C147" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D147" s="38">
         <v>20</v>
       </c>
       <c r="E147" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F147" s="38">
         <v>789</v>
@@ -23085,22 +23088,22 @@
         <v>149</v>
       </c>
       <c r="C148" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D148" s="38">
         <v>180</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F148" s="38">
-        <v>2209</v>
+        <v>2539</v>
       </c>
       <c r="G148" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H148" s="39">
-        <v>2209</v>
+        <v>2539</v>
       </c>
       <c r="I148" s="47">
         <v>1</v>
@@ -23114,18 +23117,18 @@
         <v>27</v>
       </c>
       <c r="C149" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D149" s="38"/>
       <c r="E149" s="38"/>
       <c r="F149" s="38">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="G149" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H149" s="39">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="I149" s="47">
         <v>1</v>
@@ -23139,18 +23142,18 @@
         <v>136</v>
       </c>
       <c r="C150" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D150" s="38"/>
       <c r="E150" s="38"/>
       <c r="F150" s="38">
-        <v>1972.5</v>
+        <v>2501.5</v>
       </c>
       <c r="G150" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H150" s="39">
-        <v>1972.5</v>
+        <v>2501.5</v>
       </c>
       <c r="I150" s="47">
         <v>1</v>
@@ -23164,18 +23167,18 @@
         <v>151</v>
       </c>
       <c r="C151" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D151" s="38"/>
       <c r="E151" s="38"/>
       <c r="F151" s="38">
-        <v>6850</v>
+        <v>10462.5</v>
       </c>
       <c r="G151" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H151" s="39">
-        <v>6850</v>
+        <v>10462.5</v>
       </c>
       <c r="I151" s="47">
         <v>1</v>
@@ -23189,18 +23192,18 @@
         <v>156</v>
       </c>
       <c r="C152" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D152" s="38"/>
       <c r="E152" s="38"/>
       <c r="F152" s="38">
-        <v>8794.5</v>
+        <v>9960</v>
       </c>
       <c r="G152" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H152" s="39">
-        <v>8794.5</v>
+        <v>9960</v>
       </c>
       <c r="I152" s="47">
         <v>1</v>
@@ -23211,21 +23214,21 @@
         <v>167</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C153" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D153" s="38"/>
       <c r="E153" s="38"/>
       <c r="F153" s="38">
-        <v>1099.5</v>
+        <v>1074.5</v>
       </c>
       <c r="G153" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H153" s="39">
-        <v>1099.5</v>
+        <v>1074.5</v>
       </c>
       <c r="I153" s="47">
         <v>1</v>
@@ -23236,22 +23239,22 @@
         <v>168</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C154" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D154" s="38">
         <v>250</v>
       </c>
       <c r="E154" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F154" s="38">
         <v>826</v>
       </c>
       <c r="G154" s="38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H154" s="39">
         <v>3304</v>
@@ -23265,10 +23268,10 @@
         <v>169</v>
       </c>
       <c r="B155" s="40" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C155" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D155" s="38"/>
       <c r="E155" s="38"/>
@@ -23284,10 +23287,10 @@
         <v>170</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C156" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D156" s="38"/>
       <c r="E156" s="38"/>
@@ -23303,10 +23306,10 @@
         <v>171</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C157" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D157" s="38"/>
       <c r="E157" s="38"/>
@@ -23322,10 +23325,10 @@
         <v>172</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D158" s="38"/>
       <c r="E158" s="38"/>
@@ -23341,10 +23344,10 @@
         <v>173</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D159" s="38"/>
       <c r="E159" s="38"/>
@@ -23360,25 +23363,25 @@
         <v>175</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D160" s="38">
         <v>400</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F160" s="38">
-        <v>662</v>
+        <v>933</v>
       </c>
       <c r="G160" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H160" s="39">
-        <v>1655</v>
+        <v>2332.5</v>
       </c>
       <c r="I160" s="47">
         <v>1</v>
@@ -23392,7 +23395,7 @@
         <v>30</v>
       </c>
       <c r="C161" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D161" s="38"/>
       <c r="E161" s="38"/>
@@ -23414,25 +23417,25 @@
         <v>177</v>
       </c>
       <c r="B162" s="42" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D162" s="38">
         <v>1</v>
       </c>
       <c r="E162" s="38" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F162" s="38">
-        <v>5265</v>
+        <v>7740</v>
       </c>
       <c r="G162" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H162" s="39">
-        <v>5265</v>
+        <v>7740</v>
       </c>
       <c r="I162" s="47">
         <v>1</v>
@@ -23443,16 +23446,16 @@
         <v>178</v>
       </c>
       <c r="B163" s="42" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D163" s="38">
         <v>50</v>
       </c>
       <c r="E163" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F163" s="38">
         <v>390</v>
@@ -23475,22 +23478,22 @@
         <v>86</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D164" s="38">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E164" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F164" s="38">
-        <v>575</v>
+        <v>892</v>
       </c>
       <c r="G164" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H164" s="39">
-        <v>1437.5</v>
+        <v>1784</v>
       </c>
       <c r="I164" s="47">
         <v>1</v>
@@ -23501,25 +23504,25 @@
         <v>180</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D165" s="38">
         <v>750</v>
       </c>
       <c r="E165" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F165" s="38">
-        <v>2583</v>
+        <v>3650</v>
       </c>
       <c r="G165" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H165" s="39">
-        <v>3444</v>
+        <v>4866.66666666667</v>
       </c>
       <c r="I165" s="47">
         <v>1</v>
@@ -23530,21 +23533,21 @@
         <v>181</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C166" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D166" s="38"/>
       <c r="E166" s="38"/>
       <c r="F166" s="38">
-        <v>5287.5</v>
+        <v>7494</v>
       </c>
       <c r="G166" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H166" s="39">
-        <v>5287.5</v>
+        <v>7494</v>
       </c>
       <c r="I166" s="47">
         <v>1</v>
@@ -23558,7 +23561,7 @@
         <v>54</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D167" s="38"/>
       <c r="E167" s="38"/>
@@ -23577,13 +23580,13 @@
         <v>76</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D168" s="38">
         <v>750</v>
       </c>
       <c r="E168" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F168" s="38">
         <v>2596.32</v>
@@ -23606,22 +23609,22 @@
         <v>113</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D169" s="38">
         <v>750</v>
       </c>
       <c r="E169" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F169" s="38">
-        <v>2789</v>
+        <v>3069</v>
       </c>
       <c r="G169" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H169" s="39">
-        <v>3718.66666666667</v>
+        <v>4092</v>
       </c>
       <c r="I169" s="47">
         <v>1</v>
@@ -23635,18 +23638,18 @@
         <v>56</v>
       </c>
       <c r="C170" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" s="38"/>
       <c r="E170" s="38"/>
       <c r="F170" s="38">
-        <v>790</v>
+        <v>794.5</v>
       </c>
       <c r="G170" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H170" s="39">
-        <v>790</v>
+        <v>794.5</v>
       </c>
       <c r="I170" s="47">
         <v>1</v>
@@ -23657,10 +23660,10 @@
         <v>187</v>
       </c>
       <c r="B171" s="42" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C171" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D171" s="38"/>
       <c r="E171" s="38"/>
@@ -23682,10 +23685,10 @@
         <v>188</v>
       </c>
       <c r="B172" s="42" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C172" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D172" s="38"/>
       <c r="E172" s="38"/>
@@ -23701,25 +23704,25 @@
         <v>189</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="D173" s="38">
         <v>30</v>
       </c>
       <c r="E173" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F173" s="38">
-        <v>208.87</v>
+        <v>231.12</v>
       </c>
       <c r="G173" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H173" s="39">
-        <v>6962.33333333333</v>
+        <v>7704</v>
       </c>
       <c r="I173" s="47">
         <v>80</v>
@@ -23730,25 +23733,25 @@
         <v>190</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D174" s="38">
         <v>1</v>
       </c>
       <c r="E174" s="38" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F174" s="38">
-        <v>5265</v>
+        <v>7740</v>
       </c>
       <c r="G174" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H174" s="39">
-        <v>5265</v>
+        <v>7740</v>
       </c>
       <c r="I174" s="47">
         <v>1</v>
@@ -23762,18 +23765,18 @@
         <v>285</v>
       </c>
       <c r="C175" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D175" s="38"/>
       <c r="E175" s="38"/>
       <c r="F175" s="38">
-        <v>3397.5</v>
+        <v>4302.5</v>
       </c>
       <c r="G175" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H175" s="39">
-        <v>3397.5</v>
+        <v>4302.5</v>
       </c>
       <c r="I175" s="47">
         <v>1</v>
@@ -23787,18 +23790,18 @@
         <v>138</v>
       </c>
       <c r="C176" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D176" s="38"/>
       <c r="E176" s="38"/>
       <c r="F176" s="38">
-        <v>2500</v>
+        <v>2449.5</v>
       </c>
       <c r="G176" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H176" s="39">
-        <v>2500</v>
+        <v>2449.5</v>
       </c>
       <c r="I176" s="47">
         <v>1</v>
@@ -23812,18 +23815,18 @@
         <v>154</v>
       </c>
       <c r="C177" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D177" s="38"/>
       <c r="E177" s="38"/>
       <c r="F177" s="38">
-        <v>4683.64</v>
+        <v>4639</v>
       </c>
       <c r="G177" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H177" s="39">
-        <v>4683.64</v>
+        <v>4639</v>
       </c>
       <c r="I177" s="47">
         <v>1</v>
@@ -23837,7 +23840,7 @@
         <v>150</v>
       </c>
       <c r="C178" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D178" s="38"/>
       <c r="E178" s="38"/>
@@ -23856,18 +23859,18 @@
         <v>148</v>
       </c>
       <c r="C179" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D179" s="38"/>
       <c r="E179" s="38"/>
       <c r="F179" s="38">
-        <v>4635</v>
+        <v>6312.5</v>
       </c>
       <c r="G179" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H179" s="39">
-        <v>4635</v>
+        <v>6312.5</v>
       </c>
       <c r="I179" s="47">
         <v>1</v>
@@ -23881,22 +23884,22 @@
         <v>42</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D180" s="38">
         <v>219</v>
       </c>
       <c r="E180" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F180" s="38">
-        <v>863.5</v>
+        <v>1239</v>
       </c>
       <c r="G180" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H180" s="39">
-        <v>3942.92237442922</v>
+        <v>5657.53424657534</v>
       </c>
       <c r="I180" s="47">
         <v>55</v>
@@ -23910,18 +23913,18 @@
         <v>212</v>
       </c>
       <c r="C181" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D181" s="38"/>
       <c r="E181" s="38"/>
       <c r="F181" s="38">
-        <v>5902</v>
+        <v>8748</v>
       </c>
       <c r="G181" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H181" s="39">
-        <v>5902</v>
+        <v>8748</v>
       </c>
       <c r="I181" s="47">
         <v>1</v>
@@ -23935,13 +23938,13 @@
         <v>213</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D182" s="38">
         <v>330</v>
       </c>
       <c r="E182" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F182" s="38">
         <v>3550</v>
@@ -23964,7 +23967,7 @@
         <v>214</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D183" s="38">
         <v>1</v>
@@ -23990,10 +23993,10 @@
         <v>200</v>
       </c>
       <c r="B184" s="39" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C184" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D184" s="38"/>
       <c r="E184" s="38"/>
@@ -24012,7 +24015,7 @@
         <v>216</v>
       </c>
       <c r="C185" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D185" s="38"/>
       <c r="E185" s="38"/>
@@ -24031,18 +24034,18 @@
         <v>218</v>
       </c>
       <c r="C186" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D186" s="38"/>
       <c r="E186" s="38"/>
       <c r="F186" s="38">
-        <v>5639.5</v>
+        <v>1650</v>
       </c>
       <c r="G186" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H186" s="39">
-        <v>5639.5</v>
+        <v>1650</v>
       </c>
       <c r="I186" s="47">
         <v>1</v>
@@ -24056,22 +24059,22 @@
         <v>221</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D187" s="38">
         <v>100</v>
       </c>
       <c r="E187" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F187" s="38">
-        <v>768</v>
+        <v>1299</v>
       </c>
       <c r="G187" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H187" s="39">
-        <v>7680</v>
+        <v>12990</v>
       </c>
       <c r="I187" s="47">
         <v>1</v>
@@ -24085,22 +24088,22 @@
         <v>45</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D188" s="38">
         <v>74</v>
       </c>
       <c r="E188" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F188" s="38">
-        <v>599</v>
+        <v>729</v>
       </c>
       <c r="G188" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H188" s="39">
-        <v>8094.5945945946</v>
+        <v>9851.35135135135</v>
       </c>
       <c r="I188" s="47">
         <v>350</v>
@@ -24111,10 +24114,10 @@
         <v>205</v>
       </c>
       <c r="B189" s="39" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C189" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D189" s="38"/>
       <c r="E189" s="38"/>
@@ -24130,25 +24133,25 @@
         <v>206</v>
       </c>
       <c r="B190" s="39" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D190" s="38">
         <v>700</v>
       </c>
       <c r="E190" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F190" s="38">
-        <v>1890</v>
+        <v>2359</v>
       </c>
       <c r="G190" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H190" s="39">
-        <v>2700</v>
+        <v>3370</v>
       </c>
       <c r="I190" s="47">
         <v>1</v>
@@ -24162,22 +24165,22 @@
         <v>235</v>
       </c>
       <c r="C191" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D191" s="38">
         <v>500</v>
       </c>
       <c r="E191" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F191" s="38">
-        <v>7869</v>
+        <v>2300</v>
       </c>
       <c r="G191" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H191" s="39">
-        <v>7869</v>
+        <v>2300</v>
       </c>
       <c r="I191" s="47">
         <v>1</v>
@@ -24190,19 +24193,23 @@
       <c r="B192" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C192" s="43" t="s">
-        <v>349</v>
-      </c>
-      <c r="D192" s="38"/>
-      <c r="E192" s="38"/>
+      <c r="C192" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="D192" s="38">
+        <v>14</v>
+      </c>
+      <c r="E192" s="38" t="s">
+        <v>340</v>
+      </c>
       <c r="F192" s="38">
-        <v>989</v>
+        <v>900</v>
       </c>
       <c r="G192" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H192" s="39">
-        <v>989</v>
+        <v>64285.7142857143</v>
       </c>
       <c r="I192" s="47">
         <v>1</v>
@@ -24216,18 +24223,18 @@
         <v>232</v>
       </c>
       <c r="C193" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D193" s="38"/>
       <c r="E193" s="38"/>
       <c r="F193" s="38">
-        <v>369</v>
+        <v>6510</v>
       </c>
       <c r="G193" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H193" s="39">
-        <v>369</v>
+        <v>6510</v>
       </c>
       <c r="I193" s="47">
         <v>1</v>
@@ -24241,13 +24248,13 @@
         <v>248</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D194" s="38">
         <v>750</v>
       </c>
       <c r="E194" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F194" s="38">
         <v>948.2</v>
@@ -24267,10 +24274,10 @@
         <v>211</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D195" s="38"/>
       <c r="E195" s="38"/>
@@ -24292,25 +24299,25 @@
         <v>212</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D196" s="38">
         <v>20</v>
       </c>
       <c r="E196" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F196" s="38">
-        <v>406</v>
+        <v>641</v>
       </c>
       <c r="G196" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H196" s="39">
-        <v>20300</v>
+        <v>32050</v>
       </c>
       <c r="I196" s="47">
         <v>1</v>
@@ -24321,25 +24328,25 @@
         <v>213</v>
       </c>
       <c r="B197" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C197" s="38" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D197" s="38">
         <v>820</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F197" s="38">
-        <v>1399</v>
+        <v>1799</v>
       </c>
       <c r="G197" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H197" s="39">
-        <v>1706.09756097561</v>
+        <v>2193.90243902439</v>
       </c>
       <c r="I197" s="47">
         <v>1</v>
@@ -24350,16 +24357,16 @@
         <v>214</v>
       </c>
       <c r="B198" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C198" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D198" s="38">
         <v>750</v>
       </c>
       <c r="E198" s="38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F198" s="38">
         <v>948.2</v>
@@ -24382,22 +24389,22 @@
         <v>259</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D199" s="38">
         <v>114</v>
       </c>
       <c r="E199" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F199" s="38">
-        <v>579</v>
+        <v>1441</v>
       </c>
       <c r="G199" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H199" s="39">
-        <v>5078.94736842105</v>
+        <v>12640.350877193</v>
       </c>
       <c r="I199" s="47">
         <v>80</v>
@@ -24411,7 +24418,7 @@
         <v>261</v>
       </c>
       <c r="C200" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D200" s="38"/>
       <c r="E200" s="38"/>
@@ -24436,7 +24443,7 @@
         <v>270</v>
       </c>
       <c r="C201" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D201" s="38"/>
       <c r="E201" s="38"/>
@@ -24461,7 +24468,7 @@
         <v>271</v>
       </c>
       <c r="C202" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D202" s="38"/>
       <c r="E202" s="38"/>
@@ -24486,22 +24493,22 @@
         <v>278</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D203" s="38">
         <v>20</v>
       </c>
       <c r="E203" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F203" s="38">
-        <v>406</v>
+        <v>641</v>
       </c>
       <c r="G203" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H203" s="39">
-        <v>20300</v>
+        <v>32050</v>
       </c>
       <c r="I203" s="47">
         <v>1</v>
@@ -24515,7 +24522,7 @@
         <v>287</v>
       </c>
       <c r="C204" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D204" s="38"/>
       <c r="E204" s="38"/>
@@ -24531,25 +24538,25 @@
         <v>221</v>
       </c>
       <c r="B205" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="C205" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="C205" s="38" t="s">
-        <v>516</v>
-      </c>
       <c r="D205" s="38">
         <v>1</v>
       </c>
       <c r="E205" s="38" t="s">
-        <v>336</v>
+        <v>421</v>
       </c>
       <c r="F205" s="38">
-        <v>1596</v>
+        <v>2047</v>
       </c>
       <c r="G205" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H205" s="39">
-        <v>1596</v>
+        <v>2047</v>
       </c>
       <c r="I205" s="47">
         <v>1</v>
@@ -24563,18 +24570,18 @@
         <v>290</v>
       </c>
       <c r="C206" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D206" s="38"/>
       <c r="E206" s="38"/>
       <c r="F206" s="38">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="G206" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H206" s="39">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="I206" s="47">
         <v>1</v>
@@ -24585,21 +24592,21 @@
         <v>223</v>
       </c>
       <c r="B207" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C207" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D207" s="38"/>
       <c r="E207" s="38"/>
       <c r="F207" s="38">
-        <v>2911.5</v>
+        <v>3336.5</v>
       </c>
       <c r="G207" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H207" s="39">
-        <v>2911.5</v>
+        <v>3336.5</v>
       </c>
       <c r="I207" s="47">
         <v>1</v>
@@ -24610,10 +24617,10 @@
         <v>224</v>
       </c>
       <c r="B208" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C208" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D208" s="38"/>
       <c r="E208" s="38"/>
@@ -24632,22 +24639,22 @@
         <v>306</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D209" s="38">
         <v>400</v>
       </c>
       <c r="E209" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F209" s="38">
-        <v>1449</v>
+        <v>1730</v>
       </c>
       <c r="G209" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H209" s="39">
-        <v>3622.5</v>
+        <v>4325</v>
       </c>
       <c r="I209" s="47">
         <v>1</v>
@@ -24661,22 +24668,22 @@
         <v>307</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D210" s="38">
         <v>700</v>
       </c>
       <c r="E210" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F210" s="38">
-        <v>1549</v>
+        <v>2490</v>
       </c>
       <c r="G210" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H210" s="39">
-        <v>2212.85714285714</v>
+        <v>3557.14285714286</v>
       </c>
       <c r="I210" s="47">
         <v>1</v>
@@ -24690,22 +24697,22 @@
         <v>310</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D211" s="38">
         <v>220</v>
       </c>
       <c r="E211" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F211" s="38">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="G211" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H211" s="39">
-        <v>3431.81818181818</v>
+        <v>3577.27272727273</v>
       </c>
       <c r="I211" s="47">
         <v>1</v>
@@ -24722,19 +24729,19 @@
         <v>521</v>
       </c>
       <c r="D212" s="38">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="E212" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F212" s="38">
-        <v>1140</v>
+        <v>1350</v>
       </c>
       <c r="G212" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H212" s="39">
-        <v>7600</v>
+        <v>5152.67175572519</v>
       </c>
       <c r="I212" s="47">
         <v>1</v>
@@ -24751,19 +24758,19 @@
         <v>523</v>
       </c>
       <c r="D213" s="38">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E213" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F213" s="38">
-        <v>4395</v>
+        <v>1420</v>
       </c>
       <c r="G213" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H213" s="39">
-        <v>27468.75</v>
+        <v>11360</v>
       </c>
       <c r="I213" s="47">
         <v>1</v>
@@ -24783,16 +24790,16 @@
         <v>500</v>
       </c>
       <c r="E214" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F214" s="38">
-        <v>980</v>
+        <v>1070</v>
       </c>
       <c r="G214" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H214" s="39">
-        <v>1960</v>
+        <v>2140</v>
       </c>
       <c r="I214" s="47">
         <v>500</v>
@@ -24806,22 +24813,22 @@
         <v>525</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="D215" s="38">
         <v>85</v>
       </c>
       <c r="E215" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F215" s="38">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="G215" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H215" s="39">
-        <v>6435.29411764706</v>
+        <v>5705.88235294118</v>
       </c>
       <c r="I215" s="47">
         <v>1</v>
@@ -24832,10 +24839,10 @@
         <v>232</v>
       </c>
       <c r="B216" s="39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C216" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D216" s="38"/>
       <c r="E216" s="38"/>
@@ -24851,10 +24858,10 @@
         <v>233</v>
       </c>
       <c r="B217" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C217" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D217" s="38"/>
       <c r="E217" s="38"/>
@@ -24870,16 +24877,16 @@
         <v>234</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D218" s="38">
         <v>20</v>
       </c>
       <c r="E218" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F218" s="38">
         <v>2755</v>
@@ -24899,16 +24906,16 @@
         <v>235</v>
       </c>
       <c r="B219" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C219" s="38" t="s">
         <v>530</v>
-      </c>
-      <c r="C219" s="38" t="s">
-        <v>531</v>
       </c>
       <c r="D219" s="38">
         <v>350</v>
       </c>
       <c r="E219" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F219" s="38">
         <v>2709</v>
@@ -24928,16 +24935,16 @@
         <v>236</v>
       </c>
       <c r="B220" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="C220" s="38" t="s">
         <v>532</v>
-      </c>
-      <c r="C220" s="38" t="s">
-        <v>533</v>
       </c>
       <c r="D220" s="38">
         <v>400</v>
       </c>
       <c r="E220" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F220" s="38">
         <v>361.23</v>
@@ -24957,25 +24964,25 @@
         <v>237</v>
       </c>
       <c r="B221" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="C221" s="38" t="s">
         <v>534</v>
-      </c>
-      <c r="C221" s="38" t="s">
-        <v>535</v>
       </c>
       <c r="D221" s="38">
         <v>350</v>
       </c>
       <c r="E221" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F221" s="38">
-        <v>1009</v>
+        <v>1615</v>
       </c>
       <c r="G221" s="38" t="s">
         <v>337</v>
       </c>
       <c r="H221" s="39">
-        <v>2882.85714285714</v>
+        <v>4614.28571428571</v>
       </c>
       <c r="I221" s="47">
         <v>1</v>
@@ -24986,10 +24993,10 @@
         <v>238</v>
       </c>
       <c r="B222" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C222" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D222" s="38"/>
       <c r="E222" s="38"/>
@@ -25005,10 +25012,10 @@
         <v>239</v>
       </c>
       <c r="B223" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C223" s="41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D223" s="38"/>
       <c r="E223" s="38"/>
@@ -25027,22 +25034,22 @@
         <v>66</v>
       </c>
       <c r="C224" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="D224" s="49">
-        <v>500</v>
-      </c>
-      <c r="E224" s="49" t="s">
-        <v>341</v>
+        <v>537</v>
+      </c>
+      <c r="D224" s="48">
+        <v>300</v>
+      </c>
+      <c r="E224" s="48" t="s">
+        <v>340</v>
       </c>
       <c r="F224" s="38">
-        <v>749</v>
-      </c>
-      <c r="G224" s="49" t="s">
+        <v>835</v>
+      </c>
+      <c r="G224" s="48" t="s">
         <v>337</v>
       </c>
       <c r="H224" s="39">
-        <v>749</v>
+        <v>2783.33333333333</v>
       </c>
       <c r="I224" s="47">
         <v>1</v>
@@ -25055,23 +25062,23 @@
       <c r="B225" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="C225" s="49" t="s">
-        <v>347</v>
-      </c>
-      <c r="D225" s="49">
+      <c r="C225" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D225" s="48">
         <v>300</v>
       </c>
-      <c r="E225" s="49" t="s">
-        <v>404</v>
+      <c r="E225" s="48" t="s">
+        <v>401</v>
       </c>
       <c r="F225" s="38">
-        <v>745.5</v>
-      </c>
-      <c r="G225" s="49" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G225" s="48" t="s">
         <v>337</v>
       </c>
       <c r="H225" s="39">
-        <v>2485</v>
+        <v>7013.33333333333</v>
       </c>
       <c r="I225" s="47">
         <v>1</v>
@@ -25084,22 +25091,22 @@
       <c r="B226" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C226" s="49" t="s">
+      <c r="C226" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="D226" s="49">
+      <c r="D226" s="48">
         <v>200</v>
       </c>
-      <c r="E226" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F226" s="49">
+      <c r="E226" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F226" s="48">
         <v>462</v>
       </c>
-      <c r="G226" s="49" t="s">
+      <c r="G226" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H226" s="50">
+      <c r="H226" s="49">
         <v>2310</v>
       </c>
       <c r="I226" s="47">
@@ -25107,195 +25114,195 @@
       </c>
     </row>
     <row r="227" spans="1:9">
-      <c r="A227" s="49">
+      <c r="A227" s="48">
         <v>243</v>
       </c>
       <c r="B227" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C227" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49">
-        <v>574</v>
-      </c>
-      <c r="G227" s="49" t="s">
+      <c r="C227" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48">
+        <v>749</v>
+      </c>
+      <c r="G227" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H227" s="50">
-        <v>574</v>
+      <c r="H227" s="49">
+        <v>749</v>
       </c>
       <c r="I227" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:9">
-      <c r="A228" s="49">
+      <c r="A228" s="48">
         <v>244</v>
       </c>
-      <c r="B228" s="49" t="s">
+      <c r="B228" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C228" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="D228" s="49">
+      <c r="C228" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="D228" s="48">
+        <v>250</v>
+      </c>
+      <c r="E228" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F228" s="48">
+        <v>2961</v>
+      </c>
+      <c r="G228" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="H228" s="49">
+        <v>11844</v>
+      </c>
+      <c r="I228" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="48">
+        <v>245</v>
+      </c>
+      <c r="B229" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="C229" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="D229" s="48">
         <v>100</v>
       </c>
-      <c r="E228" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F228" s="49">
-        <v>549</v>
-      </c>
-      <c r="G228" s="49" t="s">
+      <c r="E229" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F229" s="48">
+        <v>2644</v>
+      </c>
+      <c r="G229" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H228" s="50">
-        <v>5490</v>
-      </c>
-      <c r="I228" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="49">
-        <v>245</v>
-      </c>
-      <c r="B229" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="C229" s="49" t="s">
-        <v>540</v>
-      </c>
-      <c r="D229" s="49">
-        <v>100</v>
-      </c>
-      <c r="E229" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F229" s="49">
-        <v>1539</v>
-      </c>
-      <c r="G229" s="49" t="s">
+      <c r="H229" s="49">
+        <v>26440</v>
+      </c>
+      <c r="I229" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="48">
+        <v>246</v>
+      </c>
+      <c r="B230" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="C230" s="48" t="s">
+        <v>543</v>
+      </c>
+      <c r="D230" s="48">
+        <v>200</v>
+      </c>
+      <c r="E230" s="48" t="s">
+        <v>401</v>
+      </c>
+      <c r="F230" s="48">
+        <v>600</v>
+      </c>
+      <c r="G230" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H229" s="50">
-        <v>15390</v>
-      </c>
-      <c r="I229" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="49">
-        <v>246</v>
-      </c>
-      <c r="B230" s="49" t="s">
-        <v>541</v>
-      </c>
-      <c r="C230" s="49" t="s">
-        <v>542</v>
-      </c>
-      <c r="D230" s="49">
-        <v>200</v>
-      </c>
-      <c r="E230" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="F230" s="49">
-        <v>595</v>
-      </c>
-      <c r="G230" s="49" t="s">
+      <c r="H230" s="49">
+        <v>3000</v>
+      </c>
+      <c r="I230" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="48">
+        <v>247</v>
+      </c>
+      <c r="B231" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="C231" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="D231" s="48">
+        <v>500</v>
+      </c>
+      <c r="E231" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F231" s="48">
+        <v>890</v>
+      </c>
+      <c r="G231" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H230" s="50">
-        <v>2975</v>
-      </c>
-      <c r="I230" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="49">
-        <v>247</v>
-      </c>
-      <c r="B231" s="49" t="s">
-        <v>543</v>
-      </c>
-      <c r="C231" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="D231" s="49">
-        <v>500</v>
-      </c>
-      <c r="E231" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F231" s="49">
-        <v>750</v>
-      </c>
-      <c r="G231" s="49" t="s">
+      <c r="H231" s="49">
+        <v>1780</v>
+      </c>
+      <c r="I231" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="48">
+        <v>248</v>
+      </c>
+      <c r="B232" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="C232" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D232" s="48"/>
+      <c r="E232" s="48"/>
+      <c r="F232" s="48">
+        <v>8225</v>
+      </c>
+      <c r="G232" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H231" s="50">
-        <v>1500</v>
-      </c>
-      <c r="I231" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="49">
-        <v>248</v>
-      </c>
-      <c r="B232" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="C232" s="48" t="s">
-        <v>349</v>
-      </c>
-      <c r="D232" s="49"/>
-      <c r="E232" s="49"/>
-      <c r="F232" s="49">
-        <v>6275</v>
-      </c>
-      <c r="G232" s="49" t="s">
+      <c r="H232" s="49">
+        <v>8225</v>
+      </c>
+      <c r="I232" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="48">
+        <v>249</v>
+      </c>
+      <c r="B233" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="C233" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="D233" s="48">
+        <v>262</v>
+      </c>
+      <c r="E233" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F233" s="48">
+        <v>1350</v>
+      </c>
+      <c r="G233" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H232" s="50">
-        <v>6275</v>
-      </c>
-      <c r="I232" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="49">
-        <v>249</v>
-      </c>
-      <c r="B233" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="C233" s="49" t="s">
-        <v>521</v>
-      </c>
-      <c r="D233" s="49">
-        <v>150</v>
-      </c>
-      <c r="E233" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F233" s="49">
-        <v>1140</v>
-      </c>
-      <c r="G233" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="H233" s="49">
-        <v>7600</v>
+      <c r="H233" s="48">
+        <v>5152.67175572519</v>
       </c>
       <c r="I233" s="47">
         <v>1</v>
@@ -25306,54 +25313,54 @@
         <v>250</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="C234" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="D234" s="49">
+      <c r="C234" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="D234" s="48">
         <v>500</v>
       </c>
-      <c r="E234" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="F234" s="49">
-        <v>908</v>
-      </c>
-      <c r="G234" s="49" t="s">
+      <c r="E234" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="F234" s="48">
+        <v>973</v>
+      </c>
+      <c r="G234" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H234" s="49">
-        <v>1816</v>
+      <c r="H234" s="48">
+        <v>1946</v>
       </c>
       <c r="I234" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:9">
-      <c r="A235" s="49">
+      <c r="A235" s="48">
         <v>251</v>
       </c>
-      <c r="B235" s="49" t="s">
+      <c r="B235" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="C235" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="D235" s="49">
+      <c r="C235" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="D235" s="48">
         <v>500</v>
       </c>
-      <c r="E235" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F235" s="49">
-        <v>7887</v>
-      </c>
-      <c r="G235" s="49" t="s">
+      <c r="E235" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F235" s="48">
+        <v>9990</v>
+      </c>
+      <c r="G235" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="H235" s="49">
-        <v>15774</v>
+      <c r="H235" s="48">
+        <v>19980</v>
       </c>
       <c r="I235" s="47">
         <v>1</v>
@@ -25407,13 +25414,13 @@
         <v>326</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="6"/>
@@ -25459,7 +25466,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C5" s="16">
         <f>CARTA!F46-CARTA!F45</f>
@@ -25481,7 +25488,7 @@
       </c>
       <c r="C6" s="16">
         <f>CARTA!F65-CARTA!F64</f>
-        <v>8383.0604094</v>
+        <v>8383.06040940002</v>
       </c>
       <c r="D6" s="17">
         <f>CARTA!E65</f>
@@ -25787,7 +25794,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C24" s="16">
         <f>CARTA!F346-CARTA!F345</f>
@@ -25803,7 +25810,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C25" s="16">
         <f>CARTA!F362-CARTA!F361</f>
@@ -25903,7 +25910,7 @@
       </c>
       <c r="C31" s="16">
         <f>CARTA!F456-CARTA!F455</f>
-        <v>9664.569</v>
+        <v>9664.56900000002</v>
       </c>
       <c r="D31" s="17">
         <f>CARTA!E456</f>
@@ -25983,7 +25990,7 @@
       </c>
       <c r="C36" s="16">
         <f>CARTA!F531-CARTA!F530</f>
-        <v>6851.73333333334</v>
+        <v>6851.73333333335</v>
       </c>
       <c r="D36" s="17">
         <f>CARTA!E531</f>
@@ -26127,7 +26134,7 @@
       </c>
       <c r="C45" s="16">
         <f>CARTA!F680-CARTA!F679</f>
-        <v>13346.5420055486</v>
+        <v>13346.5420055487</v>
       </c>
       <c r="D45" s="17">
         <f>CARTA!E680</f>
@@ -26159,7 +26166,7 @@
       </c>
       <c r="C47" s="16">
         <f>CARTA!F714-CARTA!F713</f>
-        <v>1319.41550454545</v>
+        <v>1319.41550454546</v>
       </c>
       <c r="D47" s="17">
         <f>CARTA!E714</f>
@@ -26251,7 +26258,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C53" s="16">
         <f>CARTA!F797-CARTA!F796</f>
@@ -26271,7 +26278,7 @@
       </c>
       <c r="C54" s="16">
         <f>CARTA!F818-CARTA!F817</f>
-        <v>7454.90916666667</v>
+        <v>7454.90916666666</v>
       </c>
       <c r="D54" s="17">
         <f>CARTA!E818</f>
@@ -26347,7 +26354,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C59" s="25">
         <f>CARTA!F889-CARTA!F888</f>
@@ -26603,7 +26610,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C75" s="25">
         <f>CARTA!F1132-CARTA!F1131</f>
